--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A11974-6A81-46B8-A03E-738F47E5E7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{215059B5-5CCD-45D8-BB81-E17118A3104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="一覧" sheetId="2" r:id="rId2"/>
     <sheet name="0.変更履歴" sheetId="3" r:id="rId3"/>
     <sheet name="1.m_customer" sheetId="5" r:id="rId4"/>
+    <sheet name="2.m_change_name" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$18</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="114">
   <si>
     <t>DB設計</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>1 ・・・・・ 顧客情報マスタ</t>
+  </si>
+  <si>
+    <t>2 ・・・・・ 顧客氏名変更マスタ</t>
   </si>
   <si>
     <t>変更履歴</t>
@@ -133,7 +137,13 @@
   </si>
   <si>
     <t>・氏名を名前と苗字に分ける
-・住所を県・市・丁目・建物名に分ける</t>
+・住所を都道府県・市区町村・建物名に分ける</t>
+  </si>
+  <si>
+    <t>顧客氏名変更マスタ</t>
+  </si>
+  <si>
+    <t>m_change_name</t>
   </si>
   <si>
     <t>テーブル仕様書</t>
@@ -219,6 +229,18 @@
     <t>PERSON_NAME</t>
   </si>
   <si>
+    <t>苗字カナ</t>
+  </si>
+  <si>
+    <t>PERSON_KANA_LASTNAME</t>
+  </si>
+  <si>
+    <t>名前カナ</t>
+  </si>
+  <si>
+    <t>PERSON_KANA_NAME</t>
+  </si>
+  <si>
     <t>性別</t>
   </si>
   <si>
@@ -274,13 +296,10 @@
     <t>住所_町大字</t>
   </si>
   <si>
-    <t>ADDRESS_TOWN</t>
-  </si>
-  <si>
-    <t>住所_丁目</t>
-  </si>
-  <si>
-    <t>ADRESS_CHOME</t>
+    <t>ADDRESS_STREET</t>
+  </si>
+  <si>
+    <t>町以下のアドレスを登録する。</t>
   </si>
   <si>
     <t>住所_建物</t>
@@ -299,8 +318,29 @@
     <t>UPDATE_DAY</t>
   </si>
   <si>
-    <t>更新した日にちを『YYYY/MM/DD』の形で『/』をつけて
-登録する</t>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>更新した日にちを『YYYYMMDD』の形で登録する</t>
+  </si>
+  <si>
+    <t>登録者</t>
+  </si>
+  <si>
+    <t>CREATE_PERSON</t>
+  </si>
+  <si>
+    <t>顧客情報の追加時、レコードにログイン者の
+『"苗字" "名前"』で登録をする。</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
+    <t>CREATE_DAY</t>
+  </si>
+  <si>
+    <t>登録した日にちを『YYYYMMDD』の形で登録する</t>
   </si>
   <si>
     <t>消去フラグ</t>
@@ -313,13 +353,47 @@
   </si>
   <si>
     <t>非表示用のフラグ、消去時にTrueに変更する。</t>
+  </si>
+  <si>
+    <t>顧客が氏名を変更した際に、変更前の名前と変更後の名前を保存するテーブル。</t>
+  </si>
+  <si>
+    <t>顧客マスタを親テーブルとし、編集画面で氏名を編集する時、
+『編集された人物のID』を記述する。</t>
+  </si>
+  <si>
+    <t>変更前苗字</t>
+  </si>
+  <si>
+    <t>BEFORE_CUST_LASTNAME</t>
+  </si>
+  <si>
+    <t>変更前名前</t>
+  </si>
+  <si>
+    <t>BEFORE_CUST_NAME</t>
+  </si>
+  <si>
+    <t>変更後苗字</t>
+  </si>
+  <si>
+    <t>AFTER_CUST_LASTNAME</t>
+  </si>
+  <si>
+    <t>変更後名前</t>
+  </si>
+  <si>
+    <t>AFTER_CUST_NAME</t>
+  </si>
+  <si>
+    <t>ログイン者の『"苗字" "名前"』で登録をする。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +487,17 @@
     </font>
     <font>
       <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -688,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -753,6 +838,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,6 +952,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -876,6 +1027,48 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,56 +1078,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -945,33 +1105,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,26 +1120,17 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1009,28 +1139,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1349,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33:Z34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -1685,28 +1818,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="36"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
@@ -1716,26 +1849,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
@@ -1745,26 +1878,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
@@ -1774,28 +1907,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="36"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="52"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
@@ -1805,26 +1938,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="55"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
@@ -1834,26 +1967,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
@@ -2067,28 +2200,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="22" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -2100,24 +2233,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="27"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="43"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27">
@@ -2129,28 +2262,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="22" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="24"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27">
@@ -2162,24 +2295,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="27"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="43"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27">
@@ -2191,28 +2324,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="22" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="24"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="40"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27">
@@ -2224,24 +2357,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="27"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="43"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27">
@@ -2253,28 +2386,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="28">
-        <v>44516</v>
-      </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="30"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="44">
+        <v>44518</v>
+      </c>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="46"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27">
@@ -2286,24 +2419,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="33"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="49"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27">
@@ -2315,28 +2448,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="22" t="s">
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="24"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="40"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27">
@@ -2348,24 +2481,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="27"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="43"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27">
@@ -2377,28 +2510,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="28">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="44">
         <v>44501</v>
       </c>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="30"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="46"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27">
@@ -2410,24 +2543,24 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="33"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="49"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
@@ -2456,7 +2589,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:U13"/>
+      <selection activeCell="B12" sqref="B12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="13.5"/>
@@ -2496,14 +2629,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2521,12 +2654,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2544,12 +2677,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2583,375 +2716,377 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="4"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="4"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="4"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="4"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="B10" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="4"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="4"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="4"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="4"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="4"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="4"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="4"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4"/>
@@ -3320,7 +3455,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3334,43 +3469,43 @@
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+    <row r="1" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="82">
         <v>44502</v>
       </c>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="K2" s="83"/>
+    </row>
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -3383,34 +3518,34 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62" t="s">
+      <c r="D4" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" ht="13.5" customHeight="1">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3420,22 +3555,22 @@
       <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="57" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="54"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1">
       <c r="A6" s="15">
@@ -3447,22 +3582,22 @@
       <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
+      <c r="D6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="54"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="76"/>
+      <c r="H6" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" ht="70.5" customHeight="1">
       <c r="A7" s="15">
@@ -3474,24 +3609,24 @@
       <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="56" t="s">
+      <c r="D7" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="G7" s="76"/>
+      <c r="H7" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -3501,22 +3636,22 @@
       <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="54"/>
+      <c r="D8" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1" ht="34.5" customHeight="1">
       <c r="A9" s="15">
@@ -3528,22 +3663,22 @@
       <c r="C9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="54"/>
+      <c r="D9" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" ht="34.5" customHeight="1">
       <c r="A10" s="15">
@@ -3555,20 +3690,22 @@
       <c r="C10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="D10" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A11" s="15">
@@ -3580,128 +3717,142 @@
       <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-    </row>
-    <row r="12" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="D11" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="76"/>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="B12" s="16">
+        <v>44518</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="76"/>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="15">
         <v>9</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="15">
         <v>10</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="15">
         <v>11</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+    </row>
+    <row r="16" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="15">
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+    </row>
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="15">
         <v>13</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="15">
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+    </row>
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="17">
         <v>14</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-    </row>
-    <row r="19" spans="1:11" s="13" customFormat="1" ht="15"/>
-    <row r="20" spans="1:11" s="13" customFormat="1" ht="15"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+    </row>
+    <row r="19" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1"/>
+    <row r="20" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="A1:B2"/>
@@ -3775,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -3799,26 +3950,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="67"/>
+      <c r="A1" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="91"/>
       <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+        <v>36</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3828,30 +3979,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="73"/>
+      <c r="Q1" s="98"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+        <v>38</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
@@ -3859,17 +4010,17 @@
         <v>44501</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="74">
-        <v>44516</v>
-      </c>
-      <c r="Q2" s="75"/>
+        <v>39</v>
+      </c>
+      <c r="P2" s="102">
+        <v>44517</v>
+      </c>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -3880,865 +4031,995 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20"/>
-      <c r="N3" s="78"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="78"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="85"/>
+      <c r="A4" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="89"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="114"/>
+      <c r="L6" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="114"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A7" s="29">
+        <v>1</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="31">
+        <v>6</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="118"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A8" s="29">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="31">
+        <v>10</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A9" s="29">
+        <v>3</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="31">
+        <v>10</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A10" s="29">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="31">
+        <v>18</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="31">
+        <v>18</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="31">
+        <v>18</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" ht="33.75" customHeight="1">
+      <c r="A13" s="29">
+        <v>5</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="86"/>
+      <c r="L13" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="110"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A14" s="29">
+        <v>6</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="86"/>
+      <c r="L14" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A16" s="29">
+        <v>8</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="86"/>
+      <c r="L16" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A17" s="29">
+        <v>9</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="31">
+        <v>8</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="86"/>
+      <c r="L17" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A18" s="29">
+        <v>10</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="31">
+        <v>8</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="86"/>
+      <c r="L18" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="86"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A19" s="29">
+        <v>11</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="31">
+        <v>16</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="86"/>
+      <c r="L19" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="86"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A20" s="29">
+        <v>12</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="31">
+        <v>28</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="86"/>
+      <c r="L20" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A21" s="29">
         <v>14</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="96"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A7" s="98">
-        <v>1</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="100">
-        <v>6</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A8" s="98">
-        <v>2</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="99" t="s">
+      <c r="B21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="100">
+      <c r="E21" s="31">
+        <v>60</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="86"/>
+      <c r="L21" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="86"/>
+    </row>
+    <row r="22" spans="1:17" ht="33.75" customHeight="1">
+      <c r="A22" s="29">
+        <v>15</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="31">
+        <v>28</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A23" s="29">
+        <v>16</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="127"/>
+    </row>
+    <row r="24" spans="1:17" ht="33.75" customHeight="1">
+      <c r="A24" s="29">
+        <v>17</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="31">
+        <v>28</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A25" s="29">
+        <v>18</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A26" s="29">
+        <v>19</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="86"/>
+      <c r="L26" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="89"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A27" s="29">
         <v>20</v>
       </c>
-      <c r="F8" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A9" s="98">
-        <v>3</v>
-      </c>
-      <c r="B9" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="100">
-        <v>10</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="114"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A10" s="98">
-        <v>4</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="100">
-        <v>18</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="114"/>
-    </row>
-    <row r="11" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A11" s="98">
-        <v>5</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="104"/>
-      <c r="L11" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A12" s="98">
-        <v>6</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="104"/>
-      <c r="L12" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="114"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A13" s="98">
-        <v>7</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="104"/>
-      <c r="L13" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="114"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A14" s="98">
-        <v>8</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="114"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A15" s="98">
-        <v>9</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="100">
-        <v>8</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A16" s="98">
-        <v>10</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="100">
-        <v>8</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A17" s="98">
-        <v>11</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="100">
-        <v>16</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="104"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="98">
-        <v>12</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="100">
-        <v>20</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A19" s="98">
-        <v>13</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="100">
-        <v>8</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="104"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A20" s="98">
-        <v>14</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="100">
-        <v>60</v>
-      </c>
-      <c r="F20" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="104"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="108"/>
-    </row>
-    <row r="21" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A21" s="98">
-        <v>15</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="100">
-        <v>16</v>
-      </c>
-      <c r="F21" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="104"/>
-      <c r="L21" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="108"/>
-    </row>
-    <row r="22" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A22" s="98">
-        <v>16</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="102">
-        <v>10</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="104"/>
-      <c r="L22" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="108"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A23" s="98">
-        <v>17</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="104"/>
-      <c r="L23" s="106" t="s">
-        <v>89</v>
-      </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="108"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A24" s="98">
-        <v>18</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="108"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="108"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="89"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
+  <mergeCells count="55">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -4746,6 +5027,569 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7F607B-7F54-4587-BC90-C58BE563CB1F}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="9" width="4.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="7.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="13.125" style="5" customWidth="1"/>
+    <col min="15" max="16" width="9" style="5"/>
+    <col min="17" max="17" width="3.625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A1" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="98"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="11">
+        <v>44518</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="102">
+        <v>44518</v>
+      </c>
+      <c r="Q2" s="103"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A4" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="110"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="112"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="114"/>
+      <c r="L6" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="114"/>
+    </row>
+    <row r="7" spans="1:17" ht="33.75" customHeight="1">
+      <c r="A7" s="29">
+        <v>1</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="31">
+        <v>6</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="130"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A8" s="29">
+        <v>2</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="31">
+        <v>10</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A9" s="29">
+        <v>3</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="31">
+        <v>18</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A10" s="29">
+        <v>4</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="31">
+        <v>10</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="31">
+        <v>18</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+    </row>
+    <row r="12" spans="1:17" ht="33.75" customHeight="1">
+      <c r="A12" s="29">
+        <v>6</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="31">
+        <v>28</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A13" s="29">
+        <v>7</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="127"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A14" s="29">
+        <v>8</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{215059B5-5CCD-45D8-BB81-E17118A3104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{177E0A71-6B12-4D85-B689-700EC8651E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -886,6 +886,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,36 +949,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -970,34 +1000,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,41 +1021,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,12 +1141,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1119,42 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1482,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1818,28 +1818,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
@@ -1849,26 +1849,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="55"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2"/>
@@ -1878,26 +1878,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="46"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2"/>
@@ -1907,28 +1907,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="52"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="40"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2"/>
@@ -1938,26 +1938,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="55"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="43"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2"/>
@@ -1967,26 +1967,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2"/>
@@ -2200,28 +2200,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="38" t="s">
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="49"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27">
@@ -2233,24 +2233,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="43"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="52"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27">
@@ -2262,28 +2262,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="38" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="49"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27">
@@ -2295,24 +2295,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="43"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="52"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27">
@@ -2324,28 +2324,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="38" t="s">
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="40"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="49"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27">
@@ -2357,24 +2357,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="43"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="52"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27">
@@ -2386,28 +2386,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="44">
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="53">
         <v>44518</v>
       </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="46"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="55"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27">
@@ -2419,24 +2419,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="58"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27">
@@ -2448,28 +2448,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="38" t="s">
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="40"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="49"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27">
@@ -2481,24 +2481,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="43"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="52"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27">
@@ -2510,28 +2510,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="44">
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="53">
         <v>44501</v>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="46"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="55"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27">
@@ -2543,34 +2543,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="58"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2579,6 +2573,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2629,14 +2629,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2654,12 +2654,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2677,12 +2677,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2716,377 +2716,377 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="4"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="4"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="4"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="4"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="4"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="4"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="4"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="4"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="4"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="4"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="4"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4"/>
@@ -3412,6 +3412,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3421,30 +3445,6 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3470,40 +3470,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="80"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2" s="78">
         <v>44502</v>
       </c>
-      <c r="K2" s="83"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="12"/>
@@ -3528,22 +3528,22 @@
       <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="15">
@@ -3555,22 +3555,22 @@
       <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="76"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" ht="52.5" customHeight="1">
       <c r="A6" s="15">
@@ -3582,22 +3582,22 @@
       <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="78" t="s">
+      <c r="G6" s="81"/>
+      <c r="H6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="76"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" ht="70.5" customHeight="1">
       <c r="A7" s="15">
@@ -3609,22 +3609,22 @@
       <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="78" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="76"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="15">
@@ -3636,22 +3636,22 @@
       <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="78" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="76"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1" ht="34.5" customHeight="1">
       <c r="A9" s="15">
@@ -3663,22 +3663,22 @@
       <c r="C9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="81"/>
+      <c r="H9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="76"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" ht="34.5" customHeight="1">
       <c r="A10" s="15">
@@ -3690,22 +3690,22 @@
       <c r="C10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="78" t="s">
+      <c r="G10" s="81"/>
+      <c r="H10" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="76"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A11" s="15">
@@ -3717,22 +3717,22 @@
       <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="78" t="s">
+      <c r="G11" s="81"/>
+      <c r="H11" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="76"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="15">
@@ -3744,22 +3744,22 @@
       <c r="C12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="76"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="15">
@@ -3767,14 +3767,14 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="15">
@@ -3782,14 +3782,14 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="15">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="15">
@@ -3812,14 +3812,14 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="15">
@@ -3827,14 +3827,14 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="17">
@@ -3842,19 +3842,75 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1"/>
     <row r="20" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
@@ -3863,62 +3919,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3928,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -3950,26 +3950,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3979,30 +3979,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="98"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="99" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="101"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
@@ -4012,10 +4012,10 @@
       <c r="O2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="102">
+      <c r="P2" s="116">
         <v>44517</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="117"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
@@ -4037,46 +4037,46 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="108" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="110"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1">
       <c r="A6" s="24" t="s">
@@ -4106,18 +4106,18 @@
       <c r="I6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="113" t="s">
+      <c r="K6" s="126"/>
+      <c r="L6" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="114"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="126"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1">
       <c r="A7" s="29">
@@ -4151,14 +4151,14 @@
         <v>25</v>
       </c>
       <c r="K7" s="86"/>
-      <c r="L7" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="118"/>
+      <c r="L7" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1">
       <c r="A8" s="29">
@@ -4192,14 +4192,14 @@
         <v>25</v>
       </c>
       <c r="K8" s="86"/>
-      <c r="L8" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118"/>
+      <c r="L8" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1">
       <c r="A9" s="29">
@@ -4233,14 +4233,14 @@
         <v>25</v>
       </c>
       <c r="K9" s="86"/>
-      <c r="L9" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
+      <c r="L9" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1">
       <c r="A10" s="29">
@@ -4274,17 +4274,19 @@
         <v>25</v>
       </c>
       <c r="K10" s="86"/>
-      <c r="L10" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
+      <c r="L10" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="29">
+        <v>5</v>
+      </c>
       <c r="B11" s="30" t="s">
         <v>62</v>
       </c>
@@ -4313,17 +4315,19 @@
         <v>25</v>
       </c>
       <c r="K11" s="86"/>
-      <c r="L11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
+      <c r="L11" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="29">
+        <v>6</v>
+      </c>
       <c r="B12" s="30" t="s">
         <v>64</v>
       </c>
@@ -4352,18 +4356,18 @@
         <v>25</v>
       </c>
       <c r="K12" s="86"/>
-      <c r="L12" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
+      <c r="L12" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:17" ht="33.75" customHeight="1">
       <c r="A13" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>66</v>
@@ -4393,18 +4397,18 @@
         <v>25</v>
       </c>
       <c r="K13" s="86"/>
-      <c r="L13" s="119" t="s">
+      <c r="L13" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="110"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="102"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1">
       <c r="A14" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>70</v>
@@ -4434,18 +4438,18 @@
         <v>25</v>
       </c>
       <c r="K14" s="86"/>
-      <c r="L14" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
+      <c r="L14" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1">
       <c r="A15" s="29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>72</v>
@@ -4475,18 +4479,18 @@
         <v>25</v>
       </c>
       <c r="K15" s="86"/>
-      <c r="L15" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
+      <c r="L15" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1">
       <c r="A16" s="29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>74</v>
@@ -4516,18 +4520,18 @@
         <v>25</v>
       </c>
       <c r="K16" s="86"/>
-      <c r="L16" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
+      <c r="L16" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1">
       <c r="A17" s="29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>76</v>
@@ -4557,18 +4561,18 @@
         <v>25</v>
       </c>
       <c r="K17" s="86"/>
-      <c r="L17" s="120" t="s">
+      <c r="L17" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="110"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
       <c r="A18" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>79</v>
@@ -4601,15 +4605,15 @@
       <c r="L18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
       <c r="Q18" s="86"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1">
       <c r="A19" s="29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>81</v>
@@ -4642,15 +4646,15 @@
       <c r="L19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
       <c r="Q19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1">
       <c r="A20" s="29">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>83</v>
@@ -4680,18 +4684,18 @@
         <v>25</v>
       </c>
       <c r="K20" s="86"/>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="124"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1">
       <c r="A21" s="29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>86</v>
@@ -4724,15 +4728,15 @@
       <c r="L21" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
       <c r="Q21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="33.75" customHeight="1">
       <c r="A22" s="29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>17</v>
@@ -4762,7 +4766,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="86"/>
-      <c r="L22" s="87" t="s">
+      <c r="L22" s="94" t="s">
         <v>89</v>
       </c>
       <c r="M22" s="88"/>
@@ -4773,7 +4777,7 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
       <c r="A23" s="29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>16</v>
@@ -4803,18 +4807,18 @@
         <v>25</v>
       </c>
       <c r="K23" s="86"/>
-      <c r="L23" s="87" t="s">
+      <c r="L23" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
     </row>
     <row r="24" spans="1:17" ht="33.75" customHeight="1">
       <c r="A24" s="29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>93</v>
@@ -4844,7 +4848,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="86"/>
-      <c r="L24" s="87" t="s">
+      <c r="L24" s="94" t="s">
         <v>95</v>
       </c>
       <c r="M24" s="88"/>
@@ -4855,7 +4859,7 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
       <c r="A25" s="29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>96</v>
@@ -4885,7 +4889,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="86"/>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="94" t="s">
         <v>98</v>
       </c>
       <c r="M25" s="88"/>
@@ -4896,7 +4900,7 @@
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
       <c r="A26" s="29">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>99</v>
@@ -4926,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="86"/>
-      <c r="L26" s="121" t="s">
+      <c r="L26" s="87" t="s">
         <v>102</v>
       </c>
       <c r="M26" s="88"/>
@@ -4937,7 +4941,7 @@
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
       <c r="A27" s="29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -4949,7 +4953,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="85"/>
       <c r="K27" s="86"/>
-      <c r="L27" s="121"/>
+      <c r="L27" s="87"/>
       <c r="M27" s="88"/>
       <c r="N27" s="88"/>
       <c r="O27" s="88"/>
@@ -4968,7 +4972,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="85"/>
       <c r="K28" s="86"/>
-      <c r="L28" s="121"/>
+      <c r="L28" s="87"/>
       <c r="M28" s="88"/>
       <c r="N28" s="88"/>
       <c r="O28" s="88"/>
@@ -4977,6 +4981,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="L28:Q28"/>
     <mergeCell ref="J18:K18"/>
@@ -4993,45 +5036,6 @@
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5063,26 +5067,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -5092,30 +5096,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="98"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="99" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="101"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
@@ -5125,10 +5129,10 @@
       <c r="O2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="102">
+      <c r="P2" s="116">
         <v>44518</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="117"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
@@ -5150,46 +5154,46 @@
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="108" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="110"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1">
       <c r="A6" s="24" t="s">
@@ -5219,18 +5223,18 @@
       <c r="I6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="113" t="s">
+      <c r="K6" s="126"/>
+      <c r="L6" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="114"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="126"/>
     </row>
     <row r="7" spans="1:17" ht="33.75" customHeight="1">
       <c r="A7" s="29">
@@ -5305,14 +5309,14 @@
         <v>25</v>
       </c>
       <c r="K8" s="86"/>
-      <c r="L8" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118"/>
+      <c r="L8" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1">
       <c r="A9" s="29">
@@ -5346,14 +5350,14 @@
         <v>25</v>
       </c>
       <c r="K9" s="86"/>
-      <c r="L9" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
+      <c r="L9" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1">
       <c r="A10" s="29">
@@ -5387,14 +5391,14 @@
         <v>25</v>
       </c>
       <c r="K10" s="86"/>
-      <c r="L10" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
+      <c r="L10" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1">
       <c r="A11" s="29">
@@ -5428,14 +5432,14 @@
         <v>25</v>
       </c>
       <c r="K11" s="86"/>
-      <c r="L11" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
+      <c r="L11" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17" ht="33.75" customHeight="1">
       <c r="A12" s="29">
@@ -5469,7 +5473,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="86"/>
-      <c r="L12" s="87" t="s">
+      <c r="L12" s="94" t="s">
         <v>113</v>
       </c>
       <c r="M12" s="88"/>
@@ -5510,14 +5514,14 @@
         <v>25</v>
       </c>
       <c r="K13" s="86"/>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1">
       <c r="A14" s="29">
@@ -5533,12 +5537,12 @@
       <c r="I14" s="33"/>
       <c r="J14" s="85"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1">
       <c r="A15" s="29"/>
@@ -5552,7 +5556,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="85"/>
       <c r="K15" s="86"/>
-      <c r="L15" s="121"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="88"/>
       <c r="N15" s="88"/>
       <c r="O15" s="88"/>
@@ -5561,25 +5565,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J14:K14"/>
@@ -5590,6 +5575,25 @@
     <mergeCell ref="L12:Q12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177E0A71-6B12-4D85-B689-700EC8651E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F2216B-29C9-40FF-B417-2981560C40F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,8 @@
   </si>
   <si>
     <t>顧客情報の追加時、レコードにログイン者の
-『"苗字" "名前"』で登録をする。</t>
+『"苗字" "名前"』で登録をする。
+追加してから編集は行わない。</t>
   </si>
   <si>
     <t>登録日</t>
@@ -340,7 +341,8 @@
     <t>CREATE_DAY</t>
   </si>
   <si>
-    <t>登録した日にちを『YYYYMMDD』の形で登録する</t>
+    <t>登録した日にちを『YYYYMMDD』の形で登録する
+追加してから編集は行わない。</t>
   </si>
   <si>
     <t>消去フラグ</t>
@@ -1482,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -3929,7 +3931,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -4816,7 +4818,7 @@
       <c r="P23" s="95"/>
       <c r="Q23" s="96"/>
     </row>
-    <row r="24" spans="1:17" ht="33.75" customHeight="1">
+    <row r="24" spans="1:17" ht="45" customHeight="1">
       <c r="A24" s="29">
         <v>19</v>
       </c>
@@ -4857,7 +4859,7 @@
       <c r="P24" s="88"/>
       <c r="Q24" s="89"/>
     </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1">
+    <row r="25" spans="1:17" ht="33.75" customHeight="1">
       <c r="A25" s="29">
         <v>20</v>
       </c>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B168CA-40FB-4D7D-AFD3-DBC4C5E59F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318BA7A-0AE3-4E0D-91F5-255657689620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10575" yWindow="255" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="1.m_customer" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -532,7 +535,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -995,6 +998,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,36 +1061,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,34 +1112,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,6 +1133,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1127,23 +1148,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,7 +1187,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,45 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1870,28 +1873,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="48"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="36"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -1901,26 +1904,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="51"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="39"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -1930,26 +1933,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="54"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -1959,28 +1962,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="48"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="36"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -1990,26 +1993,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="51"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="39"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2019,26 +2022,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="54"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2252,28 +2255,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="34" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="36"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2285,24 +2288,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="39"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="48"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2314,28 +2317,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="34" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="36"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="45"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2347,24 +2350,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="39"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="48"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2376,28 +2379,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="34" t="s">
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="36"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="45"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2409,24 +2412,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="39"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="48"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2438,28 +2441,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="40">
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="49">
         <v>44524</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="42"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="51"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2471,24 +2474,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="54"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2500,28 +2503,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="34" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="36"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="45"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2533,24 +2536,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="39"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="48"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2562,28 +2565,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="40">
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="49">
         <v>44501</v>
       </c>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="42"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="51"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2595,34 +2598,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="54"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2631,9 +2628,16 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2641,7 +2645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD95A37-C4AC-4E0A-AB01-B37203C363C3}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
@@ -2682,14 +2686,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2707,12 +2711,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2730,12 +2734,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="65"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2769,375 +2773,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3463,6 +3467,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3472,33 +3500,10 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3506,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF2E822-C045-46BE-9734-2CFD504F6133}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3522,40 +3527,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="79"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81">
+      <c r="J2" s="74">
         <v>44502</v>
       </c>
-      <c r="K2" s="82"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3580,22 +3585,22 @@
       <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="31">
@@ -3607,22 +3612,22 @@
       <c r="C5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="72"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31">
@@ -3634,22 +3639,22 @@
       <c r="C6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="74" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="72"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
@@ -3661,22 +3666,22 @@
       <c r="C7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="74" t="s">
+      <c r="G7" s="77"/>
+      <c r="H7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="72"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31">
@@ -3688,22 +3693,22 @@
       <c r="C8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="77"/>
+      <c r="F8" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="74" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="72"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31">
@@ -3715,22 +3720,22 @@
       <c r="C9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="74" t="s">
+      <c r="G9" s="77"/>
+      <c r="H9" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="72"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31">
@@ -3742,22 +3747,22 @@
       <c r="C10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72" t="s">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="74" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="72"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31">
@@ -3769,22 +3774,22 @@
       <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72" t="s">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="74" t="s">
+      <c r="G11" s="77"/>
+      <c r="H11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="72"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31">
@@ -3796,22 +3801,22 @@
       <c r="C12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72" t="s">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73" t="s">
+      <c r="G12" s="77"/>
+      <c r="H12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="73"/>
-      <c r="J12" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="72"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="77"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31">
@@ -3823,22 +3828,22 @@
       <c r="C13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="75" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="73" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="72"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31">
@@ -3850,22 +3855,22 @@
       <c r="C14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73" t="s">
+      <c r="G14" s="77"/>
+      <c r="H14" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="73"/>
-      <c r="J14" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="72"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31">
@@ -3877,22 +3882,22 @@
       <c r="C15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72" t="s">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73" t="s">
+      <c r="G15" s="77"/>
+      <c r="H15" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="72" t="s">
+      <c r="I15" s="78"/>
+      <c r="J15" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="72"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31">
@@ -3904,22 +3909,22 @@
       <c r="C16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73" t="s">
+      <c r="G16" s="77"/>
+      <c r="H16" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="72" t="s">
+      <c r="I16" s="78"/>
+      <c r="J16" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="72"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="31">
@@ -3927,14 +3932,14 @@
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="33">
@@ -3942,19 +3947,75 @@
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
@@ -3963,65 +4024,10 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4029,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4051,26 +4057,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
@@ -4080,30 +4086,30 @@
       <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="89"/>
+      <c r="Q1" s="102"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
       <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
@@ -4113,10 +4119,10 @@
       <c r="O2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="91">
+      <c r="P2" s="104">
         <v>44524</v>
       </c>
-      <c r="Q2" s="89"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -4138,46 +4144,46 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
@@ -4207,18 +4213,18 @@
       <c r="I6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94" t="s">
+      <c r="K6" s="107"/>
+      <c r="L6" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20">
@@ -4248,18 +4254,18 @@
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="107" t="s">
+      <c r="J7" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
@@ -4289,18 +4295,18 @@
       <c r="I8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="J8" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
@@ -4330,18 +4336,18 @@
       <c r="I9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
+      <c r="J9" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
@@ -4371,18 +4377,18 @@
       <c r="I10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
+      <c r="J10" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
@@ -4412,18 +4418,18 @@
       <c r="I11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
+      <c r="J11" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
@@ -4453,18 +4459,18 @@
       <c r="I12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
+      <c r="J12" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
@@ -4494,18 +4500,18 @@
       <c r="I13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
+      <c r="J13" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20">
@@ -4535,18 +4541,18 @@
       <c r="I14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="97" t="s">
+      <c r="J14" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="89"/>
+      <c r="L14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20">
@@ -4576,18 +4582,18 @@
       <c r="I15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
+      <c r="J15" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20">
@@ -4617,18 +4623,18 @@
       <c r="I16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="86"/>
-      <c r="L16" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
+      <c r="J16" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
@@ -4658,18 +4664,18 @@
       <c r="I17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
+      <c r="J17" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20">
@@ -4699,18 +4705,18 @@
       <c r="I18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="86"/>
-      <c r="L18" s="101" t="s">
+      <c r="J18" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="89"/>
+      <c r="L18" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="20">
@@ -4740,18 +4746,18 @@
       <c r="I19" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="86"/>
-      <c r="L19" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
+      <c r="J19" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20">
@@ -4781,18 +4787,18 @@
       <c r="I20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
+      <c r="J20" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="20">
@@ -4822,18 +4828,18 @@
       <c r="I21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="101" t="s">
+      <c r="J21" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="89"/>
+      <c r="L21" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20">
@@ -4863,18 +4869,18 @@
       <c r="I22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
+      <c r="J22" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="20">
@@ -4904,18 +4910,18 @@
       <c r="I23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="97" t="s">
+      <c r="J23" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="89"/>
+      <c r="L23" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20">
@@ -4945,18 +4951,18 @@
       <c r="I24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="86"/>
-      <c r="L24" s="97" t="s">
+      <c r="J24" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="89"/>
+      <c r="L24" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20">
@@ -4986,18 +4992,18 @@
       <c r="I25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="97" t="s">
+      <c r="J25" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="89"/>
+      <c r="L25" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
@@ -5027,18 +5033,18 @@
       <c r="I26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="97" t="s">
+      <c r="J26" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="89"/>
+      <c r="L26" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
@@ -5068,18 +5074,18 @@
       <c r="I27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="84" t="b">
+      <c r="J27" s="95" t="b">
         <v>0</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="101" t="s">
+      <c r="K27" s="96"/>
+      <c r="L27" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20">
@@ -5093,14 +5099,14 @@
       <c r="G28" s="24"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="106"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="99"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
@@ -5112,22 +5118,42 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:Q29"/>
     <mergeCell ref="J19:K19"/>
@@ -5144,45 +5170,25 @@
     <mergeCell ref="L28:Q28"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J15:K15"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:Q12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:Q13"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318BA7A-0AE3-4E0D-91F5-255657689620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B4C97B-B249-40FF-9240-F45A5E92243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="255" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="75" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="一覧" sheetId="2" r:id="rId2"/>
     <sheet name="0.変更履歴" sheetId="3" r:id="rId3"/>
     <sheet name="1.m_customer" sheetId="5" r:id="rId4"/>
+    <sheet name="2.m_customer_info" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.m_customer_info'!$A$3:$Q$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
   </definedNames>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="123">
   <si>
     <t>DB設計</t>
   </si>
@@ -331,9 +333,6 @@
     <t>IS_DLTFLG</t>
   </si>
   <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
     <t>町以下(建物を除く)の住所を登録する。</t>
   </si>
   <si>
@@ -344,16 +343,6 @@
   </si>
   <si>
     <t>登録した日にちを『YYYYMMDD』で登録する</t>
-  </si>
-  <si>
-    <t>非表示用のフラグ、消去時はTrue</t>
-  </si>
-  <si>
-    <t>1 ・・・・・ 顧客情報マスタ</t>
-    <rPh sb="8" eb="12">
-      <t>コキャクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>m_customer_name</t>
@@ -493,6 +482,95 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>非表示用のフラグ、消去時は1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客情報に変更が加わった時の情報を保管するテーブル</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客情報マスタ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客情報更新マスタ</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>m_customer_info</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客情報更新マスタ
+顧客情報マスタ</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>m_customer
+m_customer_info</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・m_customerを顧客情報更新マスタに変更
+・m_customer_infoを追加</t>
+    <rPh sb="12" eb="18">
+      <t>コキャクジョウホウコウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1 ・・・・・ 顧客情報更新マスタ</t>
+    <rPh sb="8" eb="12">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2 ・・・・・ 顧客情報マスタ</t>
+    <rPh sb="8" eb="12">
+      <t>コキャクジョウホウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -897,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -997,6 +1075,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,7 +1643,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1873,28 +1978,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="36"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -1904,26 +2009,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="48"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -1933,26 +2038,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -1962,28 +2067,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="36"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -1993,26 +2098,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="48"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2022,26 +2127,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="51"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2255,28 +2360,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="43" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="45"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="54"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2288,24 +2393,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="48"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="57"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2317,28 +2422,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="43" t="s">
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="45"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="54"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2350,24 +2455,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="48"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="57"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2379,28 +2484,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="43" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="45"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="54"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2412,24 +2517,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="57"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2441,28 +2546,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="49">
-        <v>44524</v>
-      </c>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="51"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="58">
+        <v>44529</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2474,24 +2579,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="63"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2503,28 +2608,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="43" t="s">
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="45"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="54"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2536,24 +2641,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="48"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="57"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2565,28 +2670,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="49">
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="58">
         <v>44501</v>
       </c>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="51"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="60"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2598,24 +2703,24 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="63"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
@@ -2646,7 +2751,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F21"/>
+      <selection activeCell="B14" sqref="B14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2686,14 +2791,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2711,12 +2816,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2734,12 +2839,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2773,375 +2878,377 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="B8" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
+      <c r="B10" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3511,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF2E822-C045-46BE-9734-2CFD504F6133}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3527,40 +3634,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="72"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="83">
         <v>44502</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3585,22 +3692,22 @@
       <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="31">
@@ -3612,22 +3719,22 @@
       <c r="C5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="E5" s="86"/>
+      <c r="F5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="77"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="86"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="31">
@@ -3639,22 +3746,22 @@
       <c r="C6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="80" t="s">
+      <c r="G6" s="86"/>
+      <c r="H6" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="77"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="31">
@@ -3666,22 +3773,22 @@
       <c r="C7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="80" t="s">
+      <c r="G7" s="86"/>
+      <c r="H7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="77"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31">
@@ -3693,22 +3800,22 @@
       <c r="C8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="77"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="86"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="31">
@@ -3720,22 +3827,22 @@
       <c r="C9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="86"/>
+      <c r="H9" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="77"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="86"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="31">
@@ -3747,22 +3854,22 @@
       <c r="C10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="80" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="77"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="86"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="31">
@@ -3774,22 +3881,22 @@
       <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="86"/>
+      <c r="H11" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="77"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="86"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31">
@@ -3801,22 +3908,22 @@
       <c r="C12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="77"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31">
@@ -3828,22 +3935,22 @@
       <c r="C13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="81" t="s">
+      <c r="E13" s="91"/>
+      <c r="F13" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="78" t="s">
+      <c r="G13" s="91"/>
+      <c r="H13" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="83"/>
-      <c r="J13" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="77"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="86"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="31">
@@ -3855,22 +3962,22 @@
       <c r="C14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77" t="s">
+      <c r="E14" s="86"/>
+      <c r="F14" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78" t="s">
+      <c r="G14" s="86"/>
+      <c r="H14" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="77"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="86"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31">
@@ -3882,22 +3989,22 @@
       <c r="C15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77" t="s">
+      <c r="D15" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="77"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31">
@@ -3909,37 +4016,47 @@
       <c r="C16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="77"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="87"/>
+      <c r="J16" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="86"/>
+    </row>
+    <row r="17" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
+      <c r="B17" s="32">
+        <v>44529</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="87"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="33">
@@ -3947,14 +4064,14 @@
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4033,10 +4150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:Q27"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4057,26 +4174,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
@@ -4086,30 +4203,30 @@
       <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="102"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103" t="s">
+      <c r="D2" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
       <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
@@ -4119,10 +4236,10 @@
       <c r="O2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="104">
-        <v>44524</v>
-      </c>
-      <c r="Q2" s="102"/>
+      <c r="P2" s="113">
+        <v>44529</v>
+      </c>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -4144,46 +4261,46 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
@@ -4213,37 +4330,37 @@
       <c r="I6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107" t="s">
+      <c r="K6" s="116"/>
+      <c r="L6" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20">
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>54</v>
@@ -4254,80 +4371,80 @@
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
+      <c r="J7" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20">
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="21">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>54</v>
+      <c r="H8" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
+      <c r="J8" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="98"/>
+      <c r="L8" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="21">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="24" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="22" t="s">
@@ -4336,34 +4453,34 @@
       <c r="I9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="J9" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="98"/>
+      <c r="L9" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20">
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="24">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>23</v>
@@ -4377,34 +4494,34 @@
       <c r="I10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
+      <c r="J10" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="98"/>
+      <c r="L10" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="24">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>23</v>
@@ -4418,34 +4535,34 @@
       <c r="I11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
+      <c r="J11" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="98"/>
+      <c r="L11" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20">
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>62</v>
+        <v>92</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="24">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>23</v>
@@ -4459,678 +4576,63 @@
       <c r="I12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
+      <c r="J12" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="105"/>
+      <c r="L12" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="20">
         <v>7</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="24">
-        <v>18</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="108"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="20">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="20">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20">
-        <v>12</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="24">
-        <v>8</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="89"/>
-      <c r="L18" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20">
-        <v>14</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="24">
-        <v>8</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20">
-        <v>15</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="24">
-        <v>16</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20">
-        <v>16</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="24">
-        <v>28</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="89"/>
-      <c r="L21" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20">
-        <v>17</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="24">
-        <v>60</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="20">
-        <v>18</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="20">
-        <v>19</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="89"/>
-      <c r="L24" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20">
-        <v>20</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="89"/>
-      <c r="L25" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="20">
-        <v>21</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20">
-        <v>22</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20">
-        <v>23</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="99"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
+  <mergeCells count="27">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -5142,50 +4644,967 @@
     <mergeCell ref="C4:Q5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L9:Q9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5021F8-06A7-4350-A482-6C6D37C75CF9}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="9" width="4.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6"/>
+    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="13.125" style="6" customWidth="1"/>
+    <col min="15" max="16" width="9" style="6"/>
+    <col min="17" max="17" width="3.625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="111"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="40">
+        <v>44501</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="113">
+        <v>44529</v>
+      </c>
+      <c r="Q2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="39">
+        <v>1</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="39">
+        <v>2</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="36">
+        <v>6</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="39">
+        <v>3</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="36">
+        <v>10</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="39">
+        <v>4</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="36">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="39">
+        <v>5</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="36">
+        <v>18</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="39">
+        <v>6</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="36">
+        <v>18</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="39">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="36">
+        <v>18</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="39">
+        <v>8</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="98"/>
+      <c r="L14" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="39">
+        <v>9</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="39">
+        <v>10</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="39">
+        <v>11</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="39">
+        <v>12</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="36">
+        <v>8</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="98"/>
+      <c r="L18" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="39">
+        <v>14</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="36">
+        <v>8</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="39">
+        <v>15</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="36">
+        <v>16</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="98"/>
+      <c r="L20" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="39">
+        <v>16</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="36">
+        <v>28</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="98"/>
+      <c r="L21" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="39">
+        <v>17</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="36">
+        <v>60</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="98"/>
+      <c r="L22" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="39">
+        <v>18</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="108"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:Q14"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:Q11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:Q12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B4C97B-B249-40FF-9240-F45A5E92243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B5DAA-0168-4902-B900-9E587ED66EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="75" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="135" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>DB設計</t>
   </si>
@@ -571,6 +571,16 @@
     <t>2 ・・・・・ 顧客情報マスタ</t>
     <rPh sb="8" eb="12">
       <t>コキャクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客情報マスタと一致するID</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -989,13 +999,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,85 +1095,187 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,161 +1290,41 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,70 +1332,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1643,7 +1653,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1978,28 +1988,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="45"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2009,26 +2019,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="48"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="60"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2038,26 +2048,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="51"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2067,28 +2077,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="45"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="57"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2098,26 +2108,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="48"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="60"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2127,26 +2137,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="51"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2360,28 +2370,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="52" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="54"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2393,24 +2403,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="57"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="48"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2422,28 +2432,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="52" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="54"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="45"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2455,24 +2465,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="57"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="48"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2484,28 +2494,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="52" t="s">
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="54"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="45"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2517,24 +2527,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="57"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="48"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2546,28 +2556,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="58">
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="49">
         <v>44529</v>
       </c>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="51"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2579,24 +2589,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="63"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="54"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2608,28 +2618,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="52" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="54"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="45"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2641,24 +2651,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="57"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="48"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2670,28 +2680,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="58">
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="49">
         <v>44501</v>
       </c>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="60"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="51"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2703,28 +2713,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="63"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="54"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2733,12 +2749,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2756,7 +2766,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="5" style="6"/>
+    <col min="1" max="16384" width="5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2791,14 +2801,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2816,12 +2826,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2839,12 +2849,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2878,377 +2888,377 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3574,30 +3584,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3607,6 +3593,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3624,50 +3634,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
-    <col min="3" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="12.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="6" customWidth="1"/>
-    <col min="10" max="11" width="12.375" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
+    <col min="3" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="12.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="12.375" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="81"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="30" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="90">
         <v>44502</v>
       </c>
-      <c r="K2" s="84"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3683,400 +3693,456 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <v>44501</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87" t="s">
+      <c r="G5" s="81"/>
+      <c r="H5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="86"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>44502</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="89" t="s">
+      <c r="G6" s="81"/>
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="86"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>44508</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="89" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="86"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>44509</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="89" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="86"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>5</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <v>44510</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="89" t="s">
+      <c r="G9" s="81"/>
+      <c r="H9" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="86"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>6</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>44511</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="89" t="s">
+      <c r="G10" s="81"/>
+      <c r="H10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="86"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31">
+      <c r="A11" s="29">
         <v>7</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <v>44516</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="89" t="s">
+      <c r="G11" s="81"/>
+      <c r="H11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="89"/>
-      <c r="J11" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="86"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>8</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <v>44518</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="86"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <v>9</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>44519</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="90" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="87" t="s">
+      <c r="G13" s="85"/>
+      <c r="H13" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <v>10</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <v>44519</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87" t="s">
+      <c r="G14" s="81"/>
+      <c r="H14" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="86"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <v>11</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <v>44522</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87" t="s">
+      <c r="G15" s="81"/>
+      <c r="H15" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="86" t="s">
+      <c r="I15" s="82"/>
+      <c r="J15" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="86"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <v>12</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="30">
         <v>44524</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87" t="s">
+      <c r="G16" s="81"/>
+      <c r="H16" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="86" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="86"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31">
+      <c r="A17" s="29">
         <v>13</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <v>44529</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87" t="s">
+      <c r="G17" s="81"/>
+      <c r="H17" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
@@ -4085,62 +4151,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,484 +4163,495 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="9" width="4.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="13.125" style="6" customWidth="1"/>
-    <col min="15" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="3.625" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="9" width="4.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="7.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="13.125" style="5" customWidth="1"/>
+    <col min="15" max="16" width="9" style="5"/>
+    <col min="17" max="17" width="3.625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="111" t="s">
+      <c r="P1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>44501</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="113">
+      <c r="P2" s="101">
         <v>44529</v>
       </c>
-      <c r="Q2" s="111"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116" t="s">
+      <c r="K6" s="104"/>
+      <c r="L6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="41">
+        <v>6</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="96"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="F10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="96"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="H11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="103"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="20">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="98"/>
-      <c r="L10" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="103"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="105"/>
-      <c r="L12" s="95" t="s">
+      <c r="K12" s="107"/>
+      <c r="L12" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="110"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="108"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="113"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:Q11"/>
     <mergeCell ref="A1:B2"/>
@@ -4647,17 +4668,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4670,894 +4680,931 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="9" width="4.5" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="13.125" style="6" customWidth="1"/>
-    <col min="15" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="3.625" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="9" width="4.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="7.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="13.125" style="5" customWidth="1"/>
+    <col min="15" max="16" width="9" style="5"/>
+    <col min="17" max="17" width="3.625" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="37" t="s">
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="111" t="s">
+      <c r="P1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="37" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="38">
         <v>44501</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="113">
+      <c r="P2" s="101">
         <v>44529</v>
       </c>
-      <c r="Q2" s="111"/>
+      <c r="Q2" s="99"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116" t="s">
+      <c r="K6" s="104"/>
+      <c r="L6" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39">
+      <c r="A7" s="37">
         <v>1</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94" t="s">
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <v>6</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
+      <c r="I8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39">
+      <c r="A9" s="37">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="34">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
+      <c r="H9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="39">
+      <c r="A10" s="37">
         <v>4</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>10</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
+      <c r="H10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="39">
+      <c r="A11" s="37">
         <v>5</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="34">
         <v>18</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
+      <c r="H11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="93"/>
+      <c r="L11" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="39">
+      <c r="A12" s="37">
         <v>6</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="34">
         <v>18</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
+      <c r="H12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="93"/>
+      <c r="L12" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="39">
+      <c r="A13" s="37">
         <v>7</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <v>18</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
+      <c r="H13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="93"/>
+      <c r="L13" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="39">
+      <c r="A14" s="37">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="36" t="s">
+      <c r="E14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="101" t="s">
+      <c r="H14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="96"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39">
+      <c r="A15" s="37">
         <v>9</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="36" t="s">
+      <c r="E15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="H15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="39">
+      <c r="A16" s="37">
         <v>10</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="36" t="s">
+      <c r="E16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
+      <c r="H16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39">
+      <c r="A17" s="37">
         <v>11</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="36" t="s">
+      <c r="E17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
+      <c r="H17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="93"/>
+      <c r="L17" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39">
+      <c r="A18" s="37">
         <v>12</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>8</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="95" t="s">
+      <c r="F18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="93"/>
+      <c r="L18" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="110"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="39">
+      <c r="A19" s="37">
         <v>14</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>8</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
+      <c r="F19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="93"/>
+      <c r="L19" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="39">
+      <c r="A20" s="37">
         <v>15</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="34">
         <v>16</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
+      <c r="F20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39">
+      <c r="A21" s="37">
         <v>16</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <v>28</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="95" t="s">
+      <c r="F21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="93"/>
+      <c r="L21" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="110"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="39">
+      <c r="A22" s="37">
         <v>17</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <v>60</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="98"/>
-      <c r="L22" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
+      <c r="F22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="93"/>
+      <c r="L22" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="39">
+      <c r="A23" s="37">
         <v>18</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="108"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="113"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J23:K23"/>
@@ -5568,43 +5615,6 @@
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B5DAA-0168-4902-B900-9E587ED66EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02305C-C71A-4F5C-8C82-B8E5D4A92F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="135" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="90" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="123">
   <si>
     <t>DB設計</t>
   </si>
@@ -571,16 +571,6 @@
     <t>2 ・・・・・ 顧客情報マスタ</t>
     <rPh sb="8" eb="12">
       <t>コキャクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>顧客情報マスタと一致するID</t>
-    <rPh sb="0" eb="4">
-      <t>コキャクジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -985,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1107,12 +1097,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,36 +1169,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,34 +1220,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1233,6 +1241,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1245,26 +1256,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1275,6 +1271,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,38 +1322,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,28 +1981,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2019,26 +2012,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2048,26 +2041,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="63"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2077,28 +2070,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2108,26 +2101,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="60"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2137,26 +2130,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="63"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="52"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2370,28 +2363,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="43" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="45"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="55"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2403,24 +2396,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="48"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="58"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2432,28 +2425,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="43" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="45"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="55"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2465,24 +2458,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="48"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="58"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2494,28 +2487,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="43" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="45"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="55"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2527,24 +2520,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="58"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2556,28 +2549,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="49">
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="59">
         <v>44529</v>
       </c>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="51"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="61"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2589,24 +2582,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="64"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2618,28 +2611,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="43" t="s">
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="45"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="55"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2651,24 +2644,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="48"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2680,28 +2673,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="49">
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="59">
         <v>44501</v>
       </c>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="51"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="61"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2713,34 +2706,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="54"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="64"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2749,6 +2736,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,14 +2794,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2826,12 +2819,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2849,12 +2842,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2888,377 +2881,377 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3584,6 +3577,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3593,30 +3610,6 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3628,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF2E822-C045-46BE-9734-2CFD504F6133}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
@@ -3644,40 +3637,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="90">
+      <c r="J2" s="84">
         <v>44502</v>
       </c>
-      <c r="K2" s="91"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3702,22 +3695,22 @@
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="92"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29">
@@ -3729,22 +3722,22 @@
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="81"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29">
@@ -3756,22 +3749,22 @@
       <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="81"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29">
@@ -3783,22 +3776,22 @@
       <c r="C7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="81"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29">
@@ -3810,22 +3803,22 @@
       <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81" t="s">
+      <c r="E8" s="87"/>
+      <c r="F8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="81"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="87"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29">
@@ -3837,22 +3830,22 @@
       <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81" t="s">
+      <c r="E9" s="87"/>
+      <c r="F9" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="81"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29">
@@ -3864,22 +3857,22 @@
       <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="83" t="s">
+      <c r="G10" s="87"/>
+      <c r="H10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="81"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29">
@@ -3891,22 +3884,22 @@
       <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="83" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="81"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29">
@@ -3918,22 +3911,22 @@
       <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81" t="s">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82" t="s">
+      <c r="G12" s="87"/>
+      <c r="H12" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="82"/>
-      <c r="J12" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="81"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29">
@@ -3945,22 +3938,22 @@
       <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="84" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="82" t="s">
+      <c r="G13" s="92"/>
+      <c r="H13" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="81"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29">
@@ -3972,22 +3965,22 @@
       <c r="C14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81" t="s">
+      <c r="E14" s="87"/>
+      <c r="F14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="81"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29">
@@ -3999,22 +3992,22 @@
       <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82" t="s">
+      <c r="G15" s="87"/>
+      <c r="H15" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="81" t="s">
+      <c r="I15" s="88"/>
+      <c r="J15" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="81"/>
+      <c r="K15" s="87"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
@@ -4026,22 +4019,22 @@
       <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82" t="s">
+      <c r="G16" s="87"/>
+      <c r="H16" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="81" t="s">
+      <c r="I16" s="88"/>
+      <c r="J16" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="81"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29">
@@ -4053,20 +4046,20 @@
       <c r="C17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81" t="s">
+      <c r="E17" s="87"/>
+      <c r="F17" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82" t="s">
+      <c r="G17" s="87"/>
+      <c r="H17" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31">
@@ -4074,19 +4067,75 @@
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
@@ -4095,62 +4144,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4163,7 +4156,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4184,26 +4177,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="108"/>
       <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
@@ -4213,30 +4206,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="99"/>
+      <c r="Q1" s="110"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100" t="s">
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
       <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
@@ -4246,10 +4239,10 @@
       <c r="O2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="101">
+      <c r="P2" s="112">
         <v>44529</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -4271,46 +4264,46 @@
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
@@ -4340,59 +4333,59 @@
       <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104" t="s">
+      <c r="K6" s="115"/>
+      <c r="L6" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>1</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="41">
-        <v>6</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="116"/>
+      <c r="L7" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
@@ -4422,18 +4415,18 @@
       <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94" t="s">
+      <c r="J8" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="96"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
@@ -4463,18 +4456,18 @@
       <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94" t="s">
+      <c r="J9" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
@@ -4504,18 +4497,18 @@
       <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94" t="s">
+      <c r="J10" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
@@ -4545,18 +4538,18 @@
       <c r="I11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94" t="s">
+      <c r="J11" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
@@ -4586,18 +4579,18 @@
       <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="106" t="s">
+      <c r="J12" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108" t="s">
+      <c r="K12" s="101"/>
+      <c r="L12" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="110"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="104"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
@@ -4611,14 +4604,14 @@
       <c r="G13" s="22"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="113"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
@@ -4630,17 +4623,31 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:Q7"/>
     <mergeCell ref="L8:Q8"/>
@@ -4654,20 +4661,6 @@
     <mergeCell ref="L13:Q13"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4680,7 +4673,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:Q8"/>
+      <selection activeCell="B7" sqref="B7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4701,26 +4694,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="108"/>
       <c r="C1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
       <c r="M1" s="35" t="s">
         <v>8</v>
       </c>
@@ -4730,30 +4723,30 @@
       <c r="O1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="99"/>
+      <c r="Q1" s="110"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100" t="s">
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
       <c r="M2" s="35" t="s">
         <v>9</v>
       </c>
@@ -4763,10 +4756,10 @@
       <c r="O2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="101">
+      <c r="P2" s="112">
         <v>44529</v>
       </c>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -4788,46 +4781,46 @@
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -4857,18 +4850,18 @@
       <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104" t="s">
+      <c r="K6" s="115"/>
+      <c r="L6" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="37">
@@ -4898,18 +4891,18 @@
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115" t="s">
+      <c r="J7" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="116"/>
+      <c r="L7" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="37">
@@ -4939,18 +4932,18 @@
       <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
+      <c r="J8" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="37">
@@ -4980,18 +4973,18 @@
       <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
+      <c r="J9" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="37">
@@ -5021,18 +5014,18 @@
       <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
+      <c r="J10" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="37">
@@ -5062,18 +5055,18 @@
       <c r="I11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
+      <c r="J11" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="37">
@@ -5103,18 +5096,18 @@
       <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
+      <c r="J12" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="37">
@@ -5144,18 +5137,18 @@
       <c r="I13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
+      <c r="J13" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="37">
@@ -5185,18 +5178,18 @@
       <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94" t="s">
+      <c r="J14" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="37">
@@ -5226,18 +5219,18 @@
       <c r="I15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
+      <c r="J15" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="37">
@@ -5267,18 +5260,18 @@
       <c r="I16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
+      <c r="J16" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="37">
@@ -5308,18 +5301,18 @@
       <c r="I17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
+      <c r="J17" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="37">
@@ -5349,18 +5342,18 @@
       <c r="I18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="108" t="s">
+      <c r="J18" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="110"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="37">
@@ -5390,18 +5383,18 @@
       <c r="I19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
+      <c r="J19" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="94"/>
+      <c r="L19" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="37">
@@ -5431,18 +5424,18 @@
       <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
+      <c r="J20" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="37">
@@ -5472,18 +5465,18 @@
       <c r="I21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="108" t="s">
+      <c r="J21" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="94"/>
+      <c r="L21" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="110"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="104"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="37">
@@ -5513,18 +5506,18 @@
       <c r="I22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
+      <c r="J22" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="37">
@@ -5538,14 +5531,14 @@
       <c r="G23" s="34"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="113"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="107"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="37"/>
@@ -5557,54 +5550,17 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J23:K23"/>
@@ -5615,6 +5571,43 @@
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02305C-C71A-4F5C-8C82-B8E5D4A92F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B825729-644D-4DDE-A44F-E3D451F0D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="90" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="120" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="一覧" sheetId="2" r:id="rId2"/>
     <sheet name="0.変更履歴" sheetId="3" r:id="rId3"/>
     <sheet name="1.m_customer" sheetId="5" r:id="rId4"/>
-    <sheet name="2.m_customer_info" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.m_customer_info'!$A$3:$Q$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
   </definedNames>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="118">
   <si>
     <t>DB設計</t>
   </si>
@@ -164,9 +162,6 @@
     <t>テーブル名日本語</t>
   </si>
   <si>
-    <t>顧客管理</t>
-  </si>
-  <si>
     <t>修正日</t>
   </si>
   <si>
@@ -343,6 +338,13 @@
   </si>
   <si>
     <t>登録した日にちを『YYYYMMDD』で登録する</t>
+  </si>
+  <si>
+    <t>1 ・・・・・ 顧客情報マスタ</t>
+    <rPh sb="8" eb="12">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>m_customer_name</t>
@@ -376,39 +378,6 @@
   </si>
   <si>
     <t>CUST_NO</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>登録者の顧客管理番号を登録する。</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクシャ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>コキャクカンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>顧客管理番号</t>
-    <rPh sb="0" eb="4">
-      <t>コキャクカンリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログイン者の顧客管理番号を登録する。</t>
-    <rPh sb="6" eb="10">
-      <t>コキャクカンリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -461,116 +430,78 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>顧客情報を管理するための、変わることのない情報識別番号</t>
+    <t>tinyint</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>非表示用のフラグ、消去時は1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客番号</t>
     <rPh sb="0" eb="2">
       <t>コキャク</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>tinyint</t>
+    <t>顧客情報管理システム</t>
+    <rPh sb="0" eb="6">
+      <t>コキャクジョウホウカンリ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>非表示用のフラグ、消去時は1</t>
+    <t>更新者の顧客番号を登録する。</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>顧客情報に変更が加わった時の情報を保管するテーブル</t>
-    <rPh sb="5" eb="7">
+    <t>登録者の顧客番号を登録する。</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>顧客情報マスタ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>m_customer</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・カラム名の変更・説明文編集</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ヘンコウ</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>顧客情報マスタ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>顧客情報更新マスタ</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>m_customer_info</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>顧客情報更新マスタ
-顧客情報マスタ</t>
-    <rPh sb="0" eb="4">
-      <t>コキャクジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>コキャクジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>m_customer
-m_customer_info</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>・m_customerを顧客情報更新マスタに変更
-・m_customer_infoを追加</t>
-    <rPh sb="12" eb="18">
-      <t>コキャクジョウホウコウシン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>1 ・・・・・ 顧客情報更新マスタ</t>
-    <rPh sb="8" eb="12">
-      <t>コキャクジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>2 ・・・・・ 顧客情報マスタ</t>
-    <rPh sb="8" eb="12">
-      <t>コキャクジョウホウ</t>
+    <rPh sb="9" eb="14">
+      <t>セツメイブンヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -709,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -970,12 +901,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1070,13 +1053,187 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,195 +1248,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1289,6 +1272,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,34 +1287,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1646,7 +1617,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1981,28 +1952,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="46"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2012,26 +1983,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="55"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2041,26 +2012,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2070,28 +2041,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="52"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2101,26 +2072,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="49"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="55"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2130,26 +2101,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="52"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2363,28 +2334,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="53" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="55"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2396,24 +2367,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="58"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="43"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2425,28 +2396,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="53" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="55"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2458,24 +2429,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="58"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="43"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2487,28 +2458,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="53" t="s">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="55"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="40"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2520,24 +2491,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="58"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="43"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2549,28 +2520,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="53" t="s">
+      <c r="I31" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="59">
-        <v>44529</v>
-      </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="61"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="44">
+        <v>44524</v>
+      </c>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="46"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2582,24 +2553,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="64"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="49"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2611,28 +2582,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="53" t="s">
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="55"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="40"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2644,24 +2615,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="43"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2673,28 +2644,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="59">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="44">
         <v>44501</v>
       </c>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="61"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="46"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2706,28 +2677,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="64"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="49"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2736,12 +2713,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2754,7 +2725,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F15"/>
+      <selection activeCell="B20" sqref="B20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2881,377 +2852,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="B8" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3577,30 +3546,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3610,6 +3555,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3622,7 +3591,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -3637,40 +3606,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="82"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="85">
         <v>44502</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
@@ -3695,22 +3664,22 @@
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29">
@@ -3722,22 +3691,22 @@
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="87"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29">
@@ -3749,22 +3718,22 @@
       <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="90" t="s">
+      <c r="G6" s="76"/>
+      <c r="H6" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="87"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29">
@@ -3776,22 +3745,22 @@
       <c r="C7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="87"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29">
@@ -3803,22 +3772,22 @@
       <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="90" t="s">
+      <c r="G8" s="76"/>
+      <c r="H8" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="87"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29">
@@ -3830,22 +3799,22 @@
       <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90" t="s">
+      <c r="G9" s="76"/>
+      <c r="H9" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="87"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29">
@@ -3857,22 +3826,22 @@
       <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87" t="s">
+      <c r="E10" s="76"/>
+      <c r="F10" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="90" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="87"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29">
@@ -3884,22 +3853,22 @@
       <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87" t="s">
+      <c r="E11" s="76"/>
+      <c r="F11" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="90" t="s">
+      <c r="G11" s="76"/>
+      <c r="H11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="87"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29">
@@ -3911,22 +3880,22 @@
       <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87" t="s">
+      <c r="E12" s="76"/>
+      <c r="F12" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88" t="s">
+      <c r="G12" s="76"/>
+      <c r="H12" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="87"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29">
@@ -3938,22 +3907,22 @@
       <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="91" t="s">
+      <c r="E13" s="80"/>
+      <c r="F13" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="88" t="s">
+      <c r="G13" s="80"/>
+      <c r="H13" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="87"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29">
@@ -3965,22 +3934,22 @@
       <c r="C14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87" t="s">
+      <c r="E14" s="76"/>
+      <c r="F14" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88" t="s">
+      <c r="G14" s="76"/>
+      <c r="H14" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="87"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29">
@@ -3992,22 +3961,22 @@
       <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88" t="s">
+      <c r="G15" s="76"/>
+      <c r="H15" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="87" t="s">
+      <c r="I15" s="77"/>
+      <c r="J15" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="87"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
@@ -4019,47 +3988,47 @@
       <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="87" t="s">
+      <c r="D16" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="77"/>
+      <c r="J16" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="87"/>
-    </row>
-    <row r="17" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="76"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29">
         <v>13</v>
       </c>
       <c r="B17" s="30">
-        <v>44529</v>
-      </c>
-      <c r="C17" s="32" t="s">
+        <v>44530</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
+      <c r="D17" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="77"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="31">
@@ -4067,19 +4036,75 @@
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
@@ -4088,62 +4113,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,10 +4122,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L28" sqref="L28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4177,26 +4146,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
@@ -4206,30 +4175,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="110" t="s">
+      <c r="P1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="110"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
@@ -4237,12 +4206,12 @@
         <v>44501</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="112">
-        <v>44529</v>
-      </c>
-      <c r="Q2" s="110"/>
+        <v>38</v>
+      </c>
+      <c r="P2" s="96">
+        <v>44530</v>
+      </c>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -4264,191 +4233,191 @@
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="A4" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="J6" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="115" t="s">
+      <c r="K6" s="99"/>
+      <c r="L6" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="35" t="s">
         <v>102</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>54</v>
+      <c r="G7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
+      <c r="J7" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="113"/>
+      <c r="L7" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>102</v>
+      <c r="B8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="36">
+        <v>6</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>23</v>
+      <c r="G8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="98"/>
+      <c r="J8" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="111"/>
+      <c r="L8" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="19">
+        <v>10</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>54</v>
+      <c r="G9" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>23</v>
@@ -4456,40 +4425,40 @@
       <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
+      <c r="J9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="88"/>
+      <c r="L9" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>4</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>102</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="22">
+        <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>23</v>
@@ -4497,40 +4466,40 @@
       <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
+      <c r="J10" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="88"/>
+      <c r="L10" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="22">
+        <v>18</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>23</v>
@@ -4538,40 +4507,40 @@
       <c r="I11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
+      <c r="J11" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="88"/>
+      <c r="L11" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="22">
+        <v>18</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>23</v>
@@ -4579,68 +4548,719 @@
       <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
+      <c r="J12" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="88"/>
+      <c r="L12" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
+      <c r="B13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="22">
+        <v>18</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="88"/>
+      <c r="L13" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
+      <c r="A14" s="18">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="88"/>
+      <c r="L15" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="88"/>
+      <c r="L16" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="88"/>
+      <c r="L17" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="22">
+        <v>8</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="88"/>
+      <c r="L18" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>13</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="22">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="88"/>
+      <c r="L19" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
+        <v>14</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="22">
+        <v>16</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="88"/>
+      <c r="L20" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="18">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="22">
+        <v>28</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="88"/>
+      <c r="L21" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="104"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18">
+        <v>16</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="22">
+        <v>60</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="88"/>
+      <c r="L22" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="18">
+        <v>17</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="91"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
+        <v>18</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="18">
+        <v>19</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="18">
+        <v>20</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="18">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="106"/>
+      <c r="L27" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="104"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="18">
+        <v>22</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="109"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J10:K10"/>
+  <mergeCells count="57">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -4648,966 +5268,13 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5021F8-06A7-4350-A482-6C6D37C75CF9}">
-  <dimension ref="A1:Q24"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="7.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9" style="5"/>
-    <col min="14" max="14" width="13.125" style="5" customWidth="1"/>
-    <col min="15" max="16" width="9" style="5"/>
-    <col min="17" max="17" width="3.625" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="110"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="38">
-        <v>44501</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="112">
-        <v>44529</v>
-      </c>
-      <c r="Q2" s="110"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-    </row>
-    <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37">
-        <v>1</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37">
-        <v>2</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="34">
-        <v>6</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="34">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37">
-        <v>4</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="34">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37">
-        <v>5</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="34">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37">
-        <v>6</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="34">
-        <v>18</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="34">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37">
-        <v>8</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37">
-        <v>9</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37">
-        <v>10</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="37">
-        <v>11</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="37">
-        <v>12</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="34">
-        <v>8</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="37">
-        <v>14</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="34">
-        <v>8</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="37">
-        <v>15</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="34">
-        <v>16</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="37">
-        <v>16</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="34">
-        <v>28</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="104"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="37">
-        <v>17</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="34">
-        <v>60</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="37">
-        <v>18</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-    </row>
-  </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:Q5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B825729-644D-4DDE-A44F-E3D451F0D0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E34FC-012E-42BF-95B2-1656EBC3CBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="120" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="1.m_customer" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
   <si>
     <t>DB設計</t>
   </si>
@@ -165,9 +165,6 @@
     <t>修正日</t>
   </si>
   <si>
-    <t>内容説明</t>
-  </si>
-  <si>
     <t>日本語名称</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
   </si>
   <si>
     <t>顧客ID</t>
-  </si>
-  <si>
-    <t>CUST_ID</t>
   </si>
   <si>
     <t>VARCHAR</t>
@@ -502,6 +496,40 @@
     </rPh>
     <rPh sb="9" eb="14">
       <t>セツメイブンヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>内容説明</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CUST_ID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>連番で登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・顧客番号を主キーを外す</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハズ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -640,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -953,12 +981,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1050,201 +1122,246 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1257,46 +1374,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,7 +1716,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1952,28 +2051,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -1983,26 +2082,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="55"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="47"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2012,26 +2111,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2041,28 +2140,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="52"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2072,26 +2171,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="55"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="47"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2101,26 +2200,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="50"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2334,28 +2433,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="38" t="s">
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="53"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2367,24 +2466,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="43"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2396,28 +2495,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="38" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2429,24 +2528,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="43"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="56"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2458,28 +2557,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="38" t="s">
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="40"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2491,24 +2590,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="43"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="56"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2520,28 +2619,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="44">
-        <v>44524</v>
-      </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="46"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="57">
+        <v>44531</v>
+      </c>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="59"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2553,24 +2652,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="49"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="62"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2582,28 +2681,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="38" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="40"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="53"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2615,24 +2714,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="43"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="56"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2644,28 +2743,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="44">
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="57">
         <v>44501</v>
       </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="46"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="59"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2677,34 +2776,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="49"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="62"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2713,6 +2806,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2765,14 +2864,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2790,12 +2889,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2813,12 +2912,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2852,375 +2951,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
+      <c r="B8" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3546,6 +3645,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3555,30 +3678,6 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3591,13 +3690,13 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I18"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="117" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="117" customWidth="1"/>
     <col min="3" max="7" width="9" style="5"/>
     <col min="8" max="8" width="12.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="5" customWidth="1"/>
@@ -3606,44 +3705,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="83"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="82">
         <v>44502</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3655,34 +3754,34 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="87"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
       <c r="B5" s="30">
@@ -3691,25 +3790,25 @@
       <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="76"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
       <c r="B6" s="30">
@@ -3718,25 +3817,25 @@
       <c r="C6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="78" t="s">
+      <c r="G6" s="85"/>
+      <c r="H6" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="76"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29">
+      <c r="A7" s="37">
         <v>3</v>
       </c>
       <c r="B7" s="30">
@@ -3745,25 +3844,25 @@
       <c r="C7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="78" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="76"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29">
+      <c r="A8" s="37">
         <v>4</v>
       </c>
       <c r="B8" s="30">
@@ -3772,25 +3871,25 @@
       <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="78" t="s">
+      <c r="G8" s="85"/>
+      <c r="H8" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="76"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="85"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29">
+      <c r="A9" s="37">
         <v>5</v>
       </c>
       <c r="B9" s="30">
@@ -3799,25 +3898,25 @@
       <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="78" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="76"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29">
+      <c r="A10" s="37">
         <v>6</v>
       </c>
       <c r="B10" s="30">
@@ -3826,25 +3925,25 @@
       <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="78" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="76"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29">
+      <c r="A11" s="37">
         <v>7</v>
       </c>
       <c r="B11" s="30">
@@ -3853,25 +3952,25 @@
       <c r="C11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="78" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="76"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29">
+      <c r="A12" s="37">
         <v>8</v>
       </c>
       <c r="B12" s="30">
@@ -3880,25 +3979,25 @@
       <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="76"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29">
+      <c r="A13" s="37">
         <v>9</v>
       </c>
       <c r="B13" s="30">
@@ -3907,25 +4006,25 @@
       <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="79" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="77" t="s">
+      <c r="G13" s="90"/>
+      <c r="H13" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="76"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="85"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29">
+      <c r="A14" s="37">
         <v>10</v>
       </c>
       <c r="B14" s="30">
@@ -3934,25 +4033,25 @@
       <c r="C14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77" t="s">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="76"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29">
+      <c r="A15" s="37">
         <v>11</v>
       </c>
       <c r="B15" s="30">
@@ -3961,25 +4060,25 @@
       <c r="C15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="86"/>
+      <c r="J15" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29">
+      <c r="A16" s="37">
         <v>12</v>
       </c>
       <c r="B16" s="30">
@@ -3988,67 +4087,155 @@
       <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="76"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="86"/>
+      <c r="J16" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29">
+      <c r="A17" s="37">
         <v>13</v>
       </c>
       <c r="B17" s="30">
         <v>44530</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31">
+      <c r="A18" s="37">
         <v>14</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="B18" s="30">
+        <v>44531</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="86"/>
+      <c r="J18" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="85"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="37">
+        <v>15</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+    </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="68">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
@@ -4057,62 +4244,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4125,7 +4256,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:Q28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4146,26 +4277,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93" t="s">
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
@@ -4175,30 +4306,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="109"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="95" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
@@ -4208,10 +4339,10 @@
       <c r="O2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="96">
-        <v>44530</v>
-      </c>
-      <c r="Q2" s="94"/>
+      <c r="P2" s="111">
+        <v>44531</v>
+      </c>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -4233,182 +4364,182 @@
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
+      <c r="A4" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="J6" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="99" t="s">
+      <c r="K6" s="114"/>
+      <c r="L6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="B7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>102</v>
       </c>
+      <c r="D7" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>100</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
+      <c r="J7" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="E8" s="35">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="36">
-        <v>6</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>53</v>
+      <c r="H8" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109"/>
+      <c r="J8" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="116"/>
+      <c r="L8" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="19">
         <v>10</v>
@@ -4417,7 +4548,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>23</v>
@@ -4425,31 +4556,31 @@
       <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+      <c r="J9" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>4</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="22">
         <v>10</v>
@@ -4458,7 +4589,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>23</v>
@@ -4466,31 +4597,31 @@
       <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="J10" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="22">
         <v>18</v>
@@ -4499,7 +4630,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>23</v>
@@ -4507,31 +4638,31 @@
       <c r="I11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+      <c r="J11" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="22">
         <v>18</v>
@@ -4540,7 +4671,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>23</v>
@@ -4548,31 +4679,31 @@
       <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
+      <c r="J12" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="22">
         <v>18</v>
@@ -4581,7 +4712,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>23</v>
@@ -4589,32 +4720,32 @@
       <c r="I13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
+      <c r="J13" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>8</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>66</v>
-      </c>
       <c r="E14" s="20" t="s">
         <v>23</v>
       </c>
@@ -4622,7 +4753,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>23</v>
@@ -4630,31 +4761,31 @@
       <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
+      <c r="J14" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="100"/>
+      <c r="L14" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="105"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>9</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>23</v>
@@ -4663,7 +4794,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>23</v>
@@ -4671,31 +4802,31 @@
       <c r="I15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
+      <c r="J15" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>23</v>
@@ -4704,7 +4835,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>23</v>
@@ -4712,31 +4843,31 @@
       <c r="I16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="88"/>
-      <c r="L16" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
+      <c r="J16" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>23</v>
@@ -4745,7 +4876,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>23</v>
@@ -4753,31 +4884,31 @@
       <c r="I17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="88"/>
-      <c r="L17" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
+      <c r="J17" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>12</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="22">
         <v>8</v>
@@ -4794,31 +4925,31 @@
       <c r="I18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
+      <c r="J18" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="100"/>
+      <c r="L18" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="99"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>13</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="22">
         <v>8</v>
@@ -4835,31 +4966,31 @@
       <c r="I19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="88"/>
-      <c r="L19" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
+      <c r="J19" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>14</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="22">
         <v>16</v>
@@ -4871,36 +5002,36 @@
         <v>23</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
+      <c r="J20" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="100"/>
+      <c r="L20" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>15</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="22">
         <v>28</v>
@@ -4917,31 +5048,31 @@
       <c r="I21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="104"/>
+      <c r="J21" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="100"/>
+      <c r="L21" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>16</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="22">
         <v>60</v>
@@ -4958,18 +5089,18 @@
       <c r="I22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
+      <c r="J22" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
@@ -4979,19 +5110,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>23</v>
@@ -4999,18 +5130,18 @@
       <c r="I23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
+      <c r="J23" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="100"/>
+      <c r="L23" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="105"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
@@ -5020,60 +5151,60 @@
         <v>14</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="100"/>
+      <c r="L24" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>19</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>23</v>
@@ -5081,31 +5212,31 @@
       <c r="I25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
+      <c r="J25" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="100"/>
+      <c r="L25" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>20</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>23</v>
@@ -5114,7 +5245,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>23</v>
@@ -5122,31 +5253,31 @@
       <c r="I26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
+      <c r="J26" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="100"/>
+      <c r="L26" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>21</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>23</v>
@@ -5155,7 +5286,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>23</v>
@@ -5163,18 +5294,18 @@
       <c r="I27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
+      <c r="J27" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="107"/>
+      <c r="L27" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="99"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
@@ -5188,14 +5319,14 @@
       <c r="G28" s="22"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="109"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
@@ -5207,17 +5338,58 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:Q7"/>
     <mergeCell ref="L18:Q18"/>
@@ -5234,47 +5406,6 @@
     <mergeCell ref="L13:Q13"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E34FC-012E-42BF-95B2-1656EBC3CBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF06B8-184A-4465-9292-EC595C79B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="90" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -518,12 +518,9 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>・顧客番号を主キーを外す</t>
+    <t>・顧客IDの主キーを外す</t>
     <rPh sb="1" eb="3">
       <t>コキャク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>シュ</t>
@@ -1030,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1155,6 +1152,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,92 +1224,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1284,41 +1311,62 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1329,73 +1377,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1716,7 +1716,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2051,28 +2051,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2082,26 +2082,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="47"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2111,26 +2111,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2140,28 +2140,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2171,26 +2171,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="47"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2200,26 +2200,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="50"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2433,28 +2433,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="51" t="s">
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="53"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2466,24 +2466,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="50"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2495,28 +2495,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="51" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="53"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2528,24 +2528,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="56"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="50"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2557,28 +2557,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="51" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2590,24 +2590,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="50"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2619,28 +2619,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="57">
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="51">
         <v>44531</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="59"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="53"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2652,24 +2652,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="62"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2681,28 +2681,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="51" t="s">
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="53"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="47"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2714,24 +2714,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="56"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="50"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2743,28 +2743,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="51" t="s">
+      <c r="I35" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="57">
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="51">
         <v>44501</v>
       </c>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="59"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="53"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2776,28 +2776,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="62"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="56"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2806,12 +2812,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2864,14 +2864,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2889,12 +2889,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2912,12 +2912,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2951,375 +2951,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3645,30 +3645,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3678,6 +3654,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3690,13 +3690,13 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="H19" sqref="H19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="117" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="117" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="43" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="43" customWidth="1"/>
     <col min="3" max="7" width="9" style="5"/>
     <col min="8" max="8" width="12.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="5" customWidth="1"/>
@@ -3705,44 +3705,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="80"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2" s="92">
         <v>44502</v>
       </c>
-      <c r="K2" s="83"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3763,22 +3763,22 @@
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37">
@@ -3798,11 +3798,11 @@
         <v>21</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="89" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="85"/>
@@ -3825,11 +3825,11 @@
         <v>21</v>
       </c>
       <c r="G6" s="85"/>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="87" t="s">
+      <c r="I6" s="83"/>
+      <c r="J6" s="89" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="85"/>
@@ -3852,11 +3852,11 @@
         <v>25</v>
       </c>
       <c r="G7" s="85"/>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="89" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="85"/>
@@ -3879,11 +3879,11 @@
         <v>25</v>
       </c>
       <c r="G8" s="85"/>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="87" t="s">
+      <c r="I8" s="83"/>
+      <c r="J8" s="89" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="85"/>
@@ -3906,11 +3906,11 @@
         <v>25</v>
       </c>
       <c r="G9" s="85"/>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="87" t="s">
+      <c r="I9" s="83"/>
+      <c r="J9" s="89" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="85"/>
@@ -3933,10 +3933,10 @@
         <v>25</v>
       </c>
       <c r="G10" s="85"/>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="85" t="s">
         <v>23</v>
       </c>
@@ -3960,10 +3960,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="85"/>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="88"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="85" t="s">
         <v>23</v>
       </c>
@@ -3987,10 +3987,10 @@
         <v>32</v>
       </c>
       <c r="G12" s="85"/>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="85" t="s">
         <v>23</v>
       </c>
@@ -4006,18 +4006,18 @@
       <c r="C13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="89" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="86" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="91"/>
+      <c r="I13" s="88"/>
       <c r="J13" s="85" t="s">
         <v>23</v>
       </c>
@@ -4041,10 +4041,10 @@
         <v>25</v>
       </c>
       <c r="G14" s="85"/>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="84"/>
       <c r="J14" s="85" t="s">
         <v>23</v>
       </c>
@@ -4068,10 +4068,10 @@
         <v>96</v>
       </c>
       <c r="G15" s="85"/>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="86"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="85" t="s">
         <v>100</v>
       </c>
@@ -4095,10 +4095,10 @@
         <v>105</v>
       </c>
       <c r="G16" s="85"/>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="86"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="85" t="s">
         <v>100</v>
       </c>
@@ -4122,10 +4122,10 @@
         <v>114</v>
       </c>
       <c r="G17" s="85"/>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="86"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="85" t="s">
         <v>100</v>
       </c>
@@ -4149,10 +4149,10 @@
         <v>114</v>
       </c>
       <c r="G18" s="85"/>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="86"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="85" t="s">
         <v>100</v>
       </c>
@@ -4164,18 +4164,74 @@
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4188,62 +4244,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4256,7 +4256,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4277,26 +4277,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
@@ -4306,30 +4306,30 @@
       <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="109" t="s">
+      <c r="P1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="109"/>
+      <c r="Q1" s="104"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
@@ -4339,10 +4339,10 @@
       <c r="O2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="111">
+      <c r="P2" s="106">
         <v>44531</v>
       </c>
-      <c r="Q2" s="109"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -4364,46 +4364,46 @@
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
@@ -4433,18 +4433,18 @@
       <c r="I6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114" t="s">
+      <c r="K6" s="109"/>
+      <c r="L6" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
@@ -4468,24 +4468,24 @@
       <c r="G7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>100</v>
+      <c r="H7" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="97" t="s">
+      <c r="J7" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="123"/>
+      <c r="L7" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
@@ -4509,24 +4509,24 @@
       <c r="G8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>51</v>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="96"/>
+      <c r="J8" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="111"/>
+      <c r="L8" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
@@ -4556,18 +4556,18 @@
       <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
+      <c r="J9" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
@@ -4597,18 +4597,18 @@
       <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="J10" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
@@ -4638,18 +4638,18 @@
       <c r="I11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="J11" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="95"/>
+      <c r="L11" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
@@ -4679,18 +4679,18 @@
       <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="J12" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="95"/>
+      <c r="L12" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
@@ -4720,18 +4720,18 @@
       <c r="I13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
@@ -4761,18 +4761,18 @@
       <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="103" t="s">
+      <c r="J14" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="105"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
@@ -4802,18 +4802,18 @@
       <c r="I15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="95"/>
+      <c r="L15" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
@@ -4843,18 +4843,18 @@
       <c r="I16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="95"/>
+      <c r="L16" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
@@ -4884,18 +4884,18 @@
       <c r="I17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
+      <c r="J17" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="95"/>
+      <c r="L17" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
@@ -4925,18 +4925,18 @@
       <c r="I18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="97" t="s">
+      <c r="J18" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="95"/>
+      <c r="L18" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
@@ -4966,18 +4966,18 @@
       <c r="I19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
+      <c r="J19" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
@@ -5007,18 +5007,18 @@
       <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
+      <c r="J20" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="95"/>
+      <c r="L20" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
@@ -5048,18 +5048,18 @@
       <c r="I21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="97" t="s">
+      <c r="J21" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="95"/>
+      <c r="L21" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="116"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
@@ -5089,18 +5089,18 @@
       <c r="I22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
+      <c r="J22" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="95"/>
+      <c r="L22" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
@@ -5130,18 +5130,18 @@
       <c r="I23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="103" t="s">
+      <c r="J23" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="105"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
@@ -5171,18 +5171,18 @@
       <c r="I24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="103" t="s">
+      <c r="J24" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="95"/>
+      <c r="L24" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="105"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="98"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
@@ -5212,18 +5212,18 @@
       <c r="I25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="100"/>
-      <c r="L25" s="103" t="s">
+      <c r="J25" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="105"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
@@ -5253,18 +5253,18 @@
       <c r="I26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="100"/>
-      <c r="L26" s="103" t="s">
+      <c r="J26" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -5294,18 +5294,18 @@
       <c r="I27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="106" t="s">
+      <c r="J27" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="107"/>
-      <c r="L27" s="97" t="s">
+      <c r="K27" s="118"/>
+      <c r="L27" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="99"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="116"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
@@ -5319,14 +5319,14 @@
       <c r="G28" s="22"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="121"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
@@ -5338,17 +5338,58 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="A1:B2"/>
@@ -5365,47 +5406,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L9:Q9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\customerSampleYM\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF06B8-184A-4465-9292-EC595C79B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22425BB1-B7C1-4CF8-BCB2-35910F0E3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="90" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="255" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="117">
   <si>
     <t>DB設計</t>
   </si>
@@ -368,10 +368,6 @@
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>CUST_NO</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -436,45 +432,9 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>顧客番号</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>顧客情報管理システム</t>
     <rPh sb="0" eb="6">
       <t>コキャクジョウホウカンリ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>更新者の顧客番号を登録する。</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>登録者の顧客番号を登録する。</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -508,25 +468,41 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>連番で登録する。</t>
-    <rPh sb="0" eb="2">
-      <t>レンバン</t>
+    <t>更新者の顧客IDを登録する。</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>・顧客IDの主キーを外す</t>
+    <t>登録者の顧客IDを登録する。</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・顧客番号の消去、説明文の編集</t>
     <rPh sb="1" eb="3">
       <t>コキャク</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>シュ</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハズ</t>
+    <rPh sb="6" eb="8">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -665,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -954,32 +930,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1027,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1044,9 +994,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,227 +1070,251 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1360,42 +1331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2051,28 +1986,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="44"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2082,26 +2017,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="47"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2111,26 +2046,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="65"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2140,28 +2075,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2171,26 +2106,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="62"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="47"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2200,26 +2135,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="65"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="50"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2433,28 +2368,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45" t="s">
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="53"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2466,24 +2401,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2495,28 +2430,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="45" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2528,24 +2463,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="50"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="56"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2557,28 +2492,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="45" t="s">
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="47"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2590,24 +2525,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="50"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="56"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2619,28 +2554,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="51">
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="57">
         <v>44531</v>
       </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="53"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="59"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2652,24 +2587,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="62"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2681,28 +2616,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="45" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="47"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="53"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2714,24 +2649,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="50"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="56"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2743,28 +2678,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="51">
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="57">
         <v>44501</v>
       </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="53"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="59"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2776,34 +2711,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="56"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="62"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2812,6 +2741,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2864,14 +2799,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2889,12 +2824,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2912,12 +2847,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2951,375 +2886,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3645,6 +3580,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3654,30 +3613,6 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,8 +3630,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="43" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="43" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="39" customWidth="1"/>
     <col min="3" max="7" width="9" style="5"/>
     <col min="8" max="8" width="12.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="5" customWidth="1"/>
@@ -3705,44 +3640,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="28" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="92">
+      <c r="J2" s="82">
         <v>44502</v>
       </c>
-      <c r="K2" s="93"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3754,40 +3689,40 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="94"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>44501</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="85" t="s">
@@ -3798,23 +3733,23 @@
         <v>21</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="86"/>
+      <c r="J5" s="87" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>44502</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="85" t="s">
@@ -3825,23 +3760,23 @@
         <v>21</v>
       </c>
       <c r="G6" s="85"/>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="89" t="s">
+      <c r="I6" s="88"/>
+      <c r="J6" s="87" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>44508</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="85" t="s">
@@ -3852,23 +3787,23 @@
         <v>25</v>
       </c>
       <c r="G7" s="85"/>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="89" t="s">
+      <c r="I7" s="88"/>
+      <c r="J7" s="87" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>44509</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="85" t="s">
@@ -3879,23 +3814,23 @@
         <v>25</v>
       </c>
       <c r="G8" s="85"/>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="89" t="s">
+      <c r="I8" s="88"/>
+      <c r="J8" s="87" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="85"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37">
+      <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>44510</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="85" t="s">
@@ -3906,23 +3841,23 @@
         <v>25</v>
       </c>
       <c r="G9" s="85"/>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="89" t="s">
+      <c r="I9" s="88"/>
+      <c r="J9" s="87" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37">
+      <c r="A10" s="34">
         <v>6</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>44511</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="85" t="s">
@@ -3933,23 +3868,23 @@
         <v>25</v>
       </c>
       <c r="G10" s="85"/>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="83"/>
+      <c r="I10" s="88"/>
       <c r="J10" s="85" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37">
+      <c r="A11" s="34">
         <v>7</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>44516</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="85" t="s">
@@ -3960,23 +3895,23 @@
         <v>25</v>
       </c>
       <c r="G11" s="85"/>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="83"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="85" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37">
+      <c r="A12" s="34">
         <v>8</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>44518</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="85" t="s">
@@ -3987,50 +3922,50 @@
         <v>32</v>
       </c>
       <c r="G12" s="85"/>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="84"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="85" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37">
+      <c r="A13" s="34">
         <v>9</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>44519</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="86" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="84" t="s">
+      <c r="G13" s="90"/>
+      <c r="H13" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="88"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="85" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="85"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37">
+      <c r="A14" s="34">
         <v>10</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>44519</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="85" t="s">
@@ -4041,23 +3976,23 @@
         <v>25</v>
       </c>
       <c r="G14" s="85"/>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="84"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="85" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="85"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37">
+      <c r="A15" s="34">
         <v>11</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>44522</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="85" t="s">
@@ -4068,170 +4003,114 @@
         <v>96</v>
       </c>
       <c r="G15" s="85"/>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="85" t="s">
         <v>100</v>
       </c>
       <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37">
+      <c r="A16" s="34">
         <v>12</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>44524</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="85"/>
       <c r="F16" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="85"/>
-      <c r="H16" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="84"/>
+      <c r="H16" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="86"/>
       <c r="J16" s="85" t="s">
         <v>100</v>
       </c>
       <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="37">
+      <c r="A17" s="34">
         <v>13</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>44530</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G17" s="85"/>
-      <c r="H17" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="84"/>
+      <c r="H17" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="86"/>
       <c r="J17" s="85" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="37">
+      <c r="A18" s="34">
         <v>14</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>44531</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" s="85"/>
       <c r="F18" s="85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G18" s="85"/>
-      <c r="H18" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="84"/>
+      <c r="H18" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="86"/>
       <c r="J18" s="85" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="37">
+      <c r="A19" s="34">
         <v>15</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4244,6 +4123,62 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4253,10 +4188,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="L25" sqref="L25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4277,488 +4212,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="104" t="s">
+      <c r="P1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="104"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="105" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="7" t="s">
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>44501</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="106">
+      <c r="P2" s="113">
         <v>44531</v>
       </c>
-      <c r="Q2" s="104"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108" t="s">
+      <c r="A4" s="114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109" t="s">
+      <c r="K6" s="116"/>
+      <c r="L6" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18">
-        <v>1</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="34" t="s">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="32">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
+      <c r="I7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="118"/>
+      <c r="L7" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18">
-        <v>2</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="18">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="21">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="21">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="35" t="s">
+      <c r="B11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="121"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="H11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="19">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="E12" s="21">
+        <v>18</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="22">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="H12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="22">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="H13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="22">
-        <v>18</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="95"/>
-      <c r="L12" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18">
-        <v>7</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="22">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18">
-        <v>8</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="95" t="s">
@@ -4766,632 +4701,550 @@
       </c>
       <c r="K14" s="95"/>
       <c r="L14" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+        <v>23</v>
+      </c>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18">
-        <v>9</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="17">
+        <v>10</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="95" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="95"/>
-      <c r="L15" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="L15" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="18">
-        <v>10</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="A16" s="17">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="95" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="95"/>
-      <c r="L16" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
+      <c r="L16" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18">
-        <v>11</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="21">
+        <v>8</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="95"/>
+      <c r="L17" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="17">
+        <v>13</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="21">
+        <v>8</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="17">
+        <v>14</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="21">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="17">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="21">
+        <v>28</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="95"/>
+      <c r="L20" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="17">
+        <v>16</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="21">
+        <v>60</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="17">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18">
-        <v>12</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="22">
-        <v>8</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="22">
-        <v>8</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="18">
+      <c r="H22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="95"/>
+      <c r="L22" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="17">
+        <v>18</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="22">
-        <v>16</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="C23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="95"/>
+      <c r="L23" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="17">
+        <v>19</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18">
-        <v>15</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="22">
-        <v>28</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18">
-        <v>16</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="22">
-        <v>60</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="95"/>
-      <c r="L22" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="18">
-        <v>17</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="F24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="95"/>
+      <c r="L24" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="17">
+        <v>20</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="95"/>
+      <c r="L25" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="17">
+        <v>21</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="18">
-        <v>18</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="98"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="18">
-        <v>19</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="95"/>
-      <c r="L25" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="18">
-        <v>20</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="95"/>
-      <c r="L26" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18">
-        <v>21</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="117" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="118"/>
-      <c r="L27" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="116"/>
+      <c r="A27" s="17">
+        <v>22</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="99"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="18">
-        <v>22</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="121"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L10:Q10"/>
+  <mergeCells count="55">
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -5403,9 +5256,48 @@
     <mergeCell ref="C4:Q5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\customerSampleYM\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22425BB1-B7C1-4CF8-BCB2-35910F0E3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753853-8243-4059-9655-143F544368B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="255" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="116">
   <si>
     <t>DB設計</t>
   </si>
@@ -364,10 +364,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>INT</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -977,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1102,6 +1098,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,92 +1167,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1231,26 +1254,62 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1261,10 +1320,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,63 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,28 +1988,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="44"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2017,26 +2019,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="47"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2046,26 +2048,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2075,28 +2077,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="44"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2106,26 +2108,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="47"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="61"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2135,26 +2137,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="50"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="64"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2368,28 +2370,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="51" t="s">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="53"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="46"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2401,24 +2403,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="49"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2430,28 +2432,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="51" t="s">
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="53"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="46"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2463,24 +2465,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="56"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="49"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2492,28 +2494,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="51" t="s">
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="46"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2525,24 +2527,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="49"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2554,28 +2556,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="57">
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="50">
         <v>44531</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="59"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2587,24 +2589,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="62"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="55"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2616,28 +2618,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="51" t="s">
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="53"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="46"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2649,24 +2651,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="56"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="49"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2678,28 +2680,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="51" t="s">
+      <c r="I35" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="57">
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="50">
         <v>44501</v>
       </c>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="59"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="52"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2711,28 +2713,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="62"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="55"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2741,12 +2749,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2799,14 +2801,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2824,12 +2826,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2847,12 +2849,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2886,375 +2888,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3580,30 +3582,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3613,6 +3591,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3640,40 +3642,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="80"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82">
+      <c r="J2" s="91">
         <v>44502</v>
       </c>
-      <c r="K2" s="83"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40"/>
@@ -3698,22 +3700,22 @@
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34">
@@ -3725,22 +3727,22 @@
       <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="85"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34">
@@ -3752,22 +3754,22 @@
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="88" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="85"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34">
@@ -3779,22 +3781,22 @@
       <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="88" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="85"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
@@ -3806,22 +3808,22 @@
       <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="88" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="85"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
@@ -3833,22 +3835,22 @@
       <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="85"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
@@ -3860,22 +3862,22 @@
       <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="88" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="88"/>
-      <c r="J10" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="85"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34">
@@ -3887,22 +3889,22 @@
       <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="88" t="s">
+      <c r="G11" s="84"/>
+      <c r="H11" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="85"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
@@ -3914,22 +3916,22 @@
       <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="85"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34">
@@ -3941,22 +3943,22 @@
       <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="89" t="s">
+      <c r="E13" s="86"/>
+      <c r="F13" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="86" t="s">
+      <c r="G13" s="86"/>
+      <c r="H13" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="85"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34">
@@ -3968,22 +3970,22 @@
       <c r="C14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="85"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34">
@@ -3995,22 +3997,22 @@
       <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86" t="s">
+      <c r="G15" s="84"/>
+      <c r="H15" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="85" t="s">
+      <c r="I15" s="83"/>
+      <c r="J15" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="85"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34">
@@ -4022,22 +4024,22 @@
       <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="84"/>
+      <c r="H16" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="85" t="s">
+      <c r="I16" s="83"/>
+      <c r="J16" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="85"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34">
@@ -4049,22 +4051,22 @@
       <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85" t="s">
+      <c r="G17" s="84"/>
+      <c r="H17" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="86"/>
-      <c r="J17" s="85" t="s">
+      <c r="I17" s="83"/>
+      <c r="J17" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="85"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
@@ -4076,22 +4078,22 @@
       <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="85" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="85"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34">
@@ -4099,18 +4101,74 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4123,62 +4181,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,7 +4193,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:Q25"/>
+      <selection activeCell="L21" sqref="L21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4212,26 +4214,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="99"/>
       <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4241,30 +4243,30 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="111" t="s">
+      <c r="P1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="111"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112" t="s">
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4274,10 +4276,10 @@
       <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="113">
+      <c r="P2" s="105">
         <v>44531</v>
       </c>
-      <c r="Q2" s="111"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4299,46 +4301,46 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="106"/>
+      <c r="C4" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -4368,18 +4370,18 @@
       <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116" t="s">
+      <c r="K6" s="108"/>
+      <c r="L6" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
@@ -4389,7 +4391,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>50</v>
@@ -4409,18 +4411,18 @@
       <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="118"/>
-      <c r="L7" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
+      <c r="J7" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="110"/>
+      <c r="L7" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="120"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
@@ -4450,18 +4452,18 @@
       <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
+      <c r="J8" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
@@ -4491,18 +4493,18 @@
       <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
+      <c r="J9" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="94"/>
+      <c r="L9" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
@@ -4532,18 +4534,18 @@
       <c r="I10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
+      <c r="J10" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
@@ -4573,18 +4575,18 @@
       <c r="I11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
+      <c r="J11" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="94"/>
+      <c r="L11" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
@@ -4614,18 +4616,18 @@
       <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="95"/>
-      <c r="L12" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
+      <c r="J12" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
@@ -4655,18 +4657,18 @@
       <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="101" t="s">
+      <c r="J13" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
@@ -4696,18 +4698,18 @@
       <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
+      <c r="J14" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
@@ -4737,18 +4739,18 @@
       <c r="I15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
+      <c r="J15" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
@@ -4778,18 +4780,18 @@
       <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
+      <c r="J16" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
@@ -4819,18 +4821,18 @@
       <c r="I17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="92" t="s">
+      <c r="J17" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
@@ -4860,18 +4862,18 @@
       <c r="I18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
+      <c r="J18" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
@@ -4884,7 +4886,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="21">
         <v>16</v>
@@ -4901,18 +4903,18 @@
       <c r="I19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
+      <c r="J19" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="94"/>
+      <c r="L19" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
@@ -4942,18 +4944,18 @@
       <c r="I20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="92" t="s">
+      <c r="J20" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
@@ -4983,18 +4985,18 @@
       <c r="I21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
+      <c r="J21" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="94"/>
+      <c r="L21" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
@@ -5006,11 +5008,11 @@
       <c r="C22" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>100</v>
+      <c r="D22" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="42">
+        <v>6</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>23</v>
@@ -5024,18 +5026,18 @@
       <c r="I22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="95"/>
-      <c r="L22" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="103"/>
+      <c r="J22" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
@@ -5065,18 +5067,18 @@
       <c r="I23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="101" t="s">
+      <c r="J23" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="94"/>
+      <c r="L23" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
@@ -5088,11 +5090,11 @@
       <c r="C24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>100</v>
+      <c r="D24" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="42">
+        <v>6</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>23</v>
@@ -5106,18 +5108,18 @@
       <c r="I24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="95"/>
-      <c r="L24" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
+      <c r="J24" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="94"/>
+      <c r="L24" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
@@ -5147,18 +5149,18 @@
       <c r="I25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="95"/>
-      <c r="L25" s="101" t="s">
+      <c r="J25" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="94"/>
+      <c r="L25" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
@@ -5171,7 +5173,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>23</v>
@@ -5188,18 +5190,18 @@
       <c r="I26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
@@ -5213,14 +5215,14 @@
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="99"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="120"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
@@ -5232,17 +5234,56 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:Q25"/>
     <mergeCell ref="A1:B2"/>
@@ -5259,45 +5300,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\customerSampleYM\1.基本設計書\2.DB設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753853-8243-4059-9655-143F544368B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EE8515-CDBF-4B8D-BFD4-4B6AA787E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="780" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1104,6 +1104,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,36 +1167,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,45 +1218,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,26 +1254,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1266,6 +1290,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,36 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1988,28 +1988,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2019,26 +2019,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2048,26 +2048,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2077,28 +2077,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2108,26 +2108,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="61"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2137,26 +2137,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="64"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="52"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2370,28 +2370,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="44" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="46"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="55"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2403,24 +2403,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="49"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="58"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2432,28 +2432,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="44" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="46"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="55"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2465,24 +2465,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="49"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="58"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2494,28 +2494,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="44" t="s">
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="46"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="55"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2527,24 +2527,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="49"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="58"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2556,28 +2556,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="50">
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="59">
         <v>44531</v>
       </c>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="52"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="61"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2589,24 +2589,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="64"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2618,28 +2618,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="44" t="s">
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="46"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="55"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2651,24 +2651,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="49"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="58"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2680,28 +2680,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="50">
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="59">
         <v>44501</v>
       </c>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="52"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="61"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2713,34 +2713,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="64"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2749,6 +2743,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,14 +2801,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2826,12 +2826,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2849,12 +2849,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2888,375 +2888,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3582,6 +3582,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3591,30 +3615,6 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3642,40 +3642,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="89"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="91">
+      <c r="J2" s="84">
         <v>44502</v>
       </c>
-      <c r="K2" s="92"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40"/>
@@ -3700,22 +3700,22 @@
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="93"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34">
@@ -3727,22 +3727,22 @@
       <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="84"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34">
@@ -3754,22 +3754,22 @@
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="82" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="84"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34">
@@ -3781,22 +3781,22 @@
       <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="82" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="84"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
@@ -3808,22 +3808,22 @@
       <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84" t="s">
+      <c r="E8" s="87"/>
+      <c r="F8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="82" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="84"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="87"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
@@ -3835,22 +3835,22 @@
       <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="E9" s="87"/>
+      <c r="F9" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="84"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
@@ -3862,22 +3862,22 @@
       <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="82" t="s">
+      <c r="G10" s="87"/>
+      <c r="H10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="82"/>
-      <c r="J10" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="84"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="87"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34">
@@ -3889,22 +3889,22 @@
       <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="82" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="84"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
@@ -3916,22 +3916,22 @@
       <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84" t="s">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="83" t="s">
+      <c r="G12" s="87"/>
+      <c r="H12" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="84"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="87"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34">
@@ -3943,22 +3943,22 @@
       <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="85" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="83" t="s">
+      <c r="G13" s="92"/>
+      <c r="H13" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="84"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="87"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34">
@@ -3970,22 +3970,22 @@
       <c r="C14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84" t="s">
+      <c r="E14" s="87"/>
+      <c r="F14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="83" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="84"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="87"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34">
@@ -3997,22 +3997,22 @@
       <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
+      <c r="E15" s="87"/>
+      <c r="F15" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="83" t="s">
+      <c r="G15" s="87"/>
+      <c r="H15" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84" t="s">
+      <c r="I15" s="88"/>
+      <c r="J15" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="84"/>
+      <c r="K15" s="87"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34">
@@ -4024,22 +4024,22 @@
       <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="83" t="s">
+      <c r="G16" s="87"/>
+      <c r="H16" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84" t="s">
+      <c r="I16" s="88"/>
+      <c r="J16" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="84"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34">
@@ -4051,22 +4051,22 @@
       <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84" t="s">
+      <c r="E17" s="87"/>
+      <c r="F17" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="83" t="s">
+      <c r="G17" s="87"/>
+      <c r="H17" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84" t="s">
+      <c r="I17" s="88"/>
+      <c r="J17" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="84"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
@@ -4078,22 +4078,22 @@
       <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84" t="s">
+      <c r="E18" s="87"/>
+      <c r="F18" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="83" t="s">
+      <c r="G18" s="87"/>
+      <c r="H18" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84" t="s">
+      <c r="I18" s="88"/>
+      <c r="J18" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="84"/>
+      <c r="K18" s="87"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34">
@@ -4101,74 +4101,18 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4181,6 +4125,62 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4214,26 +4214,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4243,30 +4243,30 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="P1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="103"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
       <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4276,10 +4276,10 @@
       <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="105">
+      <c r="P2" s="115">
         <v>44531</v>
       </c>
-      <c r="Q2" s="103"/>
+      <c r="Q2" s="113"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4301,46 +4301,46 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -4370,18 +4370,18 @@
       <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="108" t="s">
+      <c r="J6" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108" t="s">
+      <c r="K6" s="118"/>
+      <c r="L6" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
@@ -4411,18 +4411,18 @@
       <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="109" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="120"/>
+      <c r="J7" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="120"/>
+      <c r="L7" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="96"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
@@ -4452,18 +4452,18 @@
       <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="J8" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
@@ -4493,18 +4493,18 @@
       <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="J9" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
@@ -4534,18 +4534,18 @@
       <c r="I10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="J10" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
@@ -4575,18 +4575,18 @@
       <c r="I11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="94"/>
-      <c r="L11" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="J11" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
@@ -4616,18 +4616,18 @@
       <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
+      <c r="J12" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
@@ -4657,18 +4657,18 @@
       <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95" t="s">
+      <c r="J13" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="97"/>
+      <c r="L13" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="105"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
@@ -4698,18 +4698,18 @@
       <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
+      <c r="J14" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
@@ -4739,18 +4739,18 @@
       <c r="I15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
+      <c r="J15" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
@@ -4780,18 +4780,18 @@
       <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
+      <c r="J16" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
@@ -4821,18 +4821,18 @@
       <c r="I17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="113" t="s">
+      <c r="J17" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="97"/>
+      <c r="L17" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="115"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
@@ -4862,18 +4862,18 @@
       <c r="I18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
+      <c r="J18" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
@@ -4903,18 +4903,18 @@
       <c r="I19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
+      <c r="J19" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
@@ -4944,18 +4944,18 @@
       <c r="I20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="113" t="s">
+      <c r="J20" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="97"/>
+      <c r="L20" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
@@ -4985,18 +4985,18 @@
       <c r="I21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
+      <c r="J21" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
@@ -5026,18 +5026,18 @@
       <c r="I22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="95" t="s">
+      <c r="J22" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="97"/>
+      <c r="L22" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="105"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
@@ -5067,18 +5067,18 @@
       <c r="I23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="95" t="s">
+      <c r="J23" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="97"/>
+      <c r="L23" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="105"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
@@ -5108,18 +5108,18 @@
       <c r="I24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="94"/>
-      <c r="L24" s="95" t="s">
+      <c r="J24" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="97"/>
+      <c r="L24" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
@@ -5149,18 +5149,18 @@
       <c r="I25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="94"/>
-      <c r="L25" s="95" t="s">
+      <c r="J25" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="97"/>
+      <c r="L25" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
@@ -5190,18 +5190,18 @@
       <c r="I26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="116" t="s">
+      <c r="J26" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="117"/>
-      <c r="L26" s="113" t="s">
+      <c r="K26" s="107"/>
+      <c r="L26" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="115"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
@@ -5215,14 +5215,14 @@
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="120"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
@@ -5234,22 +5234,49 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:Q12"/>
     <mergeCell ref="J28:K28"/>
@@ -5266,38 +5293,11 @@
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="J9:K9"/>
   </mergeCells>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EE8515-CDBF-4B8D-BFD4-4B6AA787E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8DD16-1BDD-4795-BD94-DD927226AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="780" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="30" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1104,6 +1104,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,92 +1170,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1233,106 +1257,85 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1656,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1988,28 +1991,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="46"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2019,26 +2022,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="49"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2048,26 +2051,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2077,28 +2080,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2108,26 +2111,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="49"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2137,26 +2140,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="52"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2370,28 +2373,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="53" t="s">
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="55"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2403,24 +2406,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="58"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="50"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2432,28 +2435,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="53" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="55"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2465,24 +2468,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="58"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="50"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2494,28 +2497,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="53" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="55"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2527,24 +2530,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="58"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="50"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2556,28 +2559,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="53" t="s">
+      <c r="I31" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="59">
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="51">
         <v>44531</v>
       </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="61"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="53"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2589,24 +2592,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="64"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2618,28 +2621,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="53" t="s">
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="55"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="47"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2651,24 +2654,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="58"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="50"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2680,28 +2683,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="59">
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="51">
         <v>44501</v>
       </c>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="61"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="53"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2713,28 +2716,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="64"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="56"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2743,12 +2752,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,14 +2804,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2826,12 +2829,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2849,12 +2852,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2888,13 +2891,13 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
@@ -2913,11 +2916,11 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
@@ -2936,13 +2939,13 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
@@ -2961,11 +2964,11 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
@@ -2984,11 +2987,11 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -3007,11 +3010,11 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
@@ -3582,30 +3585,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3615,6 +3594,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3642,40 +3645,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="82"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="92">
         <v>44502</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40"/>
@@ -3700,22 +3703,22 @@
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34">
@@ -3727,22 +3730,22 @@
       <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="88"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="87"/>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34">
@@ -3754,22 +3757,22 @@
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="90" t="s">
+      <c r="G6" s="85"/>
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="90"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="87"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34">
@@ -3781,22 +3784,22 @@
       <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="90" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="90"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="87"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
@@ -3808,22 +3811,22 @@
       <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="90" t="s">
+      <c r="G8" s="85"/>
+      <c r="H8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="87"/>
+      <c r="K8" s="85"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
@@ -3835,22 +3838,22 @@
       <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="87"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
@@ -3862,22 +3865,22 @@
       <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="90" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="87"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34">
@@ -3889,22 +3892,22 @@
       <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="90" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="87"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
@@ -3916,22 +3919,22 @@
       <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="87"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34">
@@ -3943,22 +3946,22 @@
       <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="91" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="88" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="85"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34">
@@ -3970,22 +3973,22 @@
       <c r="C14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88" t="s">
+      <c r="G14" s="85"/>
+      <c r="H14" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="87"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34">
@@ -3997,22 +4000,22 @@
       <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87" t="s">
+      <c r="E15" s="85"/>
+      <c r="F15" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88" t="s">
+      <c r="G15" s="85"/>
+      <c r="H15" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="87" t="s">
+      <c r="I15" s="84"/>
+      <c r="J15" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="87"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34">
@@ -4024,22 +4027,22 @@
       <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="88"/>
-      <c r="J16" s="87" t="s">
+      <c r="I16" s="84"/>
+      <c r="J16" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="87"/>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34">
@@ -4051,22 +4054,22 @@
       <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87" t="s">
+      <c r="E17" s="85"/>
+      <c r="F17" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88" t="s">
+      <c r="G17" s="85"/>
+      <c r="H17" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="87" t="s">
+      <c r="I17" s="84"/>
+      <c r="J17" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="87"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
@@ -4078,22 +4081,22 @@
       <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88" t="s">
+      <c r="G18" s="85"/>
+      <c r="H18" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="88"/>
-      <c r="J18" s="87" t="s">
+      <c r="I18" s="84"/>
+      <c r="J18" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="87"/>
+      <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34">
@@ -4101,18 +4104,74 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4125,62 +4184,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4193,7 +4196,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:Q21"/>
+      <selection activeCell="L24" sqref="L24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4214,26 +4217,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4243,30 +4246,30 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="113"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4276,10 +4279,10 @@
       <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="115">
+      <c r="P2" s="107">
         <v>44531</v>
       </c>
-      <c r="Q2" s="113"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4301,46 +4304,46 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -4370,22 +4373,22 @@
       <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>49</v>
@@ -4411,22 +4414,22 @@
       <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="96"/>
+      <c r="J7" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>52</v>
@@ -4452,22 +4455,22 @@
       <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
+      <c r="J8" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="96"/>
+      <c r="L8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -4493,22 +4496,22 @@
       <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
+      <c r="J9" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>56</v>
@@ -4534,22 +4537,22 @@
       <c r="I10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
+      <c r="J10" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>58</v>
@@ -4575,22 +4578,22 @@
       <c r="I11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
+      <c r="J11" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="96"/>
+      <c r="L11" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>60</v>
@@ -4616,22 +4619,22 @@
       <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
+      <c r="J12" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="96"/>
+      <c r="L12" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
-        <v>8</v>
+      <c r="A13" s="44">
+        <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>62</v>
@@ -4657,22 +4660,22 @@
       <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="103" t="s">
+      <c r="J13" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="105"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
-        <v>9</v>
+      <c r="A14" s="44">
+        <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>65</v>
@@ -4698,22 +4701,22 @@
       <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
+      <c r="J14" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="96"/>
+      <c r="L14" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17">
-        <v>10</v>
+      <c r="A15" s="44">
+        <v>9</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>67</v>
@@ -4739,22 +4742,22 @@
       <c r="I15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
+      <c r="J15" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="96"/>
+      <c r="L15" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
-        <v>11</v>
+      <c r="A16" s="44">
+        <v>10</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>69</v>
@@ -4780,22 +4783,22 @@
       <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
+      <c r="J16" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="96"/>
+      <c r="L16" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
-        <v>12</v>
+      <c r="A17" s="44">
+        <v>11</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>71</v>
@@ -4821,22 +4824,22 @@
       <c r="I17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="100" t="s">
+      <c r="J17" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="96"/>
+      <c r="L17" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17">
-        <v>13</v>
+      <c r="A18" s="44">
+        <v>12</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>73</v>
@@ -4862,22 +4865,22 @@
       <c r="I18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
+      <c r="J18" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="96"/>
+      <c r="L18" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="17">
-        <v>14</v>
+      <c r="A19" s="44">
+        <v>13</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>75</v>
@@ -4903,22 +4906,22 @@
       <c r="I19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
+      <c r="J19" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="96"/>
+      <c r="L19" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="17">
-        <v>15</v>
+      <c r="A20" s="44">
+        <v>14</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>77</v>
@@ -4944,22 +4947,22 @@
       <c r="I20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="100" t="s">
+      <c r="J20" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="96"/>
+      <c r="L20" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="102"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="17">
-        <v>16</v>
+      <c r="A21" s="44">
+        <v>15</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>79</v>
@@ -4985,22 +4988,22 @@
       <c r="I21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
+      <c r="J21" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="96"/>
+      <c r="L21" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17">
-        <v>17</v>
+      <c r="A22" s="44">
+        <v>16</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>15</v>
@@ -5026,22 +5029,22 @@
       <c r="I22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="103" t="s">
+      <c r="J22" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="105"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="99"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="17">
-        <v>18</v>
+      <c r="A23" s="44">
+        <v>17</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>14</v>
@@ -5067,22 +5070,22 @@
       <c r="I23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="103" t="s">
+      <c r="J23" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="105"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17">
-        <v>19</v>
+      <c r="A24" s="44">
+        <v>18</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>85</v>
@@ -5108,22 +5111,22 @@
       <c r="I24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="103" t="s">
+      <c r="J24" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="105"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="17">
-        <v>20</v>
+      <c r="A25" s="44">
+        <v>19</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>87</v>
@@ -5149,22 +5152,22 @@
       <c r="I25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="103" t="s">
+      <c r="J25" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="105"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="99"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17">
-        <v>21</v>
+      <c r="A26" s="44">
+        <v>20</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>89</v>
@@ -5190,22 +5193,22 @@
       <c r="I26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="106" t="s">
+      <c r="J26" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="100" t="s">
+      <c r="K26" s="118"/>
+      <c r="L26" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="17">
-        <v>22</v>
+      <c r="A27" s="44">
+        <v>21</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5215,14 +5218,14 @@
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="121"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
@@ -5234,17 +5237,56 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J25:K25"/>
@@ -5261,45 +5303,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8DD16-1BDD-4795-BD94-DD927226AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0E8039-91C9-4BF3-ABA4-103138FF38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="30" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1107,6 +1107,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,36 +1170,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1191,45 +1221,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,29 +1257,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1272,6 +1293,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,33 +1336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1991,28 +1991,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="47"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2022,26 +2022,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2051,26 +2051,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="65"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="53"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2080,28 +2080,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2111,26 +2111,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="62"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="50"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2140,26 +2140,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="65"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2373,28 +2373,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45" t="s">
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2406,24 +2406,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2435,28 +2435,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="45" t="s">
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="56"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2468,24 +2468,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="50"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2497,28 +2497,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="45" t="s">
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="47"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2530,24 +2530,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="50"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2559,28 +2559,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="51">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="60">
         <v>44531</v>
       </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="53"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="62"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2592,24 +2592,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="65"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2621,28 +2621,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="45" t="s">
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="47"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="56"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2654,24 +2654,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="50"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="59"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2683,28 +2683,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="51">
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="60">
         <v>44501</v>
       </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="53"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="62"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2716,34 +2716,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="56"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="65"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2752,6 +2746,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2804,14 +2804,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2829,12 +2829,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2852,12 +2852,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2891,375 +2891,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3585,6 +3585,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3594,30 +3618,6 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,40 +3645,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="92">
+      <c r="J2" s="85">
         <v>44502</v>
       </c>
-      <c r="K2" s="93"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40"/>
@@ -3703,22 +3703,22 @@
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="94"/>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34">
@@ -3730,22 +3730,22 @@
       <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="84" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="85"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="88"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34">
@@ -3757,22 +3757,22 @@
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="88"/>
+      <c r="H6" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="85"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34">
@@ -3784,22 +3784,22 @@
       <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="88"/>
+      <c r="H7" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="85"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
@@ -3811,22 +3811,22 @@
       <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="88"/>
+      <c r="F8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="88"/>
+      <c r="H8" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="85"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="88"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
@@ -3838,22 +3838,22 @@
       <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85" t="s">
+      <c r="E9" s="88"/>
+      <c r="F9" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="88"/>
+      <c r="H9" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="85"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="88"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
@@ -3865,22 +3865,22 @@
       <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85" t="s">
+      <c r="E10" s="88"/>
+      <c r="F10" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="83" t="s">
+      <c r="G10" s="88"/>
+      <c r="H10" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="85"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34">
@@ -3892,22 +3892,22 @@
       <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85" t="s">
+      <c r="E11" s="88"/>
+      <c r="F11" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="83" t="s">
+      <c r="G11" s="88"/>
+      <c r="H11" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="85"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="88"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
@@ -3919,22 +3919,22 @@
       <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85" t="s">
+      <c r="E12" s="88"/>
+      <c r="F12" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="84" t="s">
+      <c r="G12" s="88"/>
+      <c r="H12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="85"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34">
@@ -3946,22 +3946,22 @@
       <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="86" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="84" t="s">
+      <c r="G13" s="93"/>
+      <c r="H13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="85"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34">
@@ -3973,22 +3973,22 @@
       <c r="C14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85" t="s">
+      <c r="E14" s="88"/>
+      <c r="F14" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="84" t="s">
+      <c r="G14" s="88"/>
+      <c r="H14" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="85"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="88"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34">
@@ -4000,22 +4000,22 @@
       <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85" t="s">
+      <c r="E15" s="88"/>
+      <c r="F15" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="84" t="s">
+      <c r="G15" s="88"/>
+      <c r="H15" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85" t="s">
+      <c r="I15" s="89"/>
+      <c r="J15" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="85"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34">
@@ -4027,22 +4027,22 @@
       <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85" t="s">
+      <c r="E16" s="88"/>
+      <c r="F16" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="84" t="s">
+      <c r="G16" s="88"/>
+      <c r="H16" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85" t="s">
+      <c r="I16" s="89"/>
+      <c r="J16" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="85"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34">
@@ -4054,22 +4054,22 @@
       <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85" t="s">
+      <c r="E17" s="88"/>
+      <c r="F17" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="84" t="s">
+      <c r="G17" s="88"/>
+      <c r="H17" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85" t="s">
+      <c r="I17" s="89"/>
+      <c r="J17" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="85"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
@@ -4081,22 +4081,22 @@
       <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85" t="s">
+      <c r="E18" s="88"/>
+      <c r="F18" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="84" t="s">
+      <c r="G18" s="88"/>
+      <c r="H18" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85" t="s">
+      <c r="I18" s="89"/>
+      <c r="J18" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="85"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34">
@@ -4104,74 +4104,18 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4184,6 +4128,62 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4217,26 +4217,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104" t="s">
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4246,30 +4246,30 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="105"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4279,10 +4279,10 @@
       <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="107">
+      <c r="P2" s="116">
         <v>44531</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="114"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4304,46 +4304,46 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -4373,18 +4373,18 @@
       <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110" t="s">
+      <c r="K6" s="119"/>
+      <c r="L6" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
@@ -4414,18 +4414,18 @@
       <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="121"/>
+      <c r="J7" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="121"/>
+      <c r="L7" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
@@ -4455,18 +4455,18 @@
       <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="J8" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
@@ -4496,18 +4496,18 @@
       <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
+      <c r="J9" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
@@ -4537,18 +4537,18 @@
       <c r="I10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
+      <c r="J10" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
@@ -4578,18 +4578,18 @@
       <c r="I11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
+      <c r="J11" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
@@ -4619,18 +4619,18 @@
       <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
+      <c r="J12" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44">
@@ -4660,18 +4660,18 @@
       <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97" t="s">
+      <c r="J13" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="98"/>
+      <c r="L13" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44">
@@ -4701,18 +4701,18 @@
       <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
+      <c r="J14" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="98"/>
+      <c r="L14" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44">
@@ -4742,18 +4742,18 @@
       <c r="I15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
+      <c r="J15" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44">
@@ -4783,18 +4783,18 @@
       <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
+      <c r="J16" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44">
@@ -4824,18 +4824,18 @@
       <c r="I17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="113" t="s">
+      <c r="J17" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="98"/>
+      <c r="L17" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="115"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44">
@@ -4865,18 +4865,18 @@
       <c r="I18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
+      <c r="J18" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44">
@@ -4906,18 +4906,18 @@
       <c r="I19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
+      <c r="J19" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44">
@@ -4947,18 +4947,18 @@
       <c r="I20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="96"/>
-      <c r="L20" s="113" t="s">
+      <c r="J20" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="98"/>
+      <c r="L20" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44">
@@ -4988,18 +4988,18 @@
       <c r="I21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="96"/>
-      <c r="L21" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
+      <c r="J21" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44">
@@ -5029,18 +5029,18 @@
       <c r="I22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97" t="s">
+      <c r="J22" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="98"/>
+      <c r="L22" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="99"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44">
@@ -5070,18 +5070,18 @@
       <c r="I23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97" t="s">
+      <c r="J23" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="98"/>
+      <c r="L23" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44">
@@ -5111,18 +5111,18 @@
       <c r="I24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97" t="s">
+      <c r="J24" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="98"/>
+      <c r="L24" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44">
@@ -5152,18 +5152,18 @@
       <c r="I25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97" t="s">
+      <c r="J25" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="98"/>
+      <c r="L25" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="106"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44">
@@ -5193,18 +5193,18 @@
       <c r="I26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="117" t="s">
+      <c r="J26" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="118"/>
-      <c r="L26" s="113" t="s">
+      <c r="K26" s="108"/>
+      <c r="L26" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="115"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44">
@@ -5218,14 +5218,14 @@
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="121"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
@@ -5237,24 +5237,49 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:Q12"/>
     <mergeCell ref="J28:K28"/>
@@ -5271,38 +5296,13 @@
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0E8039-91C9-4BF3-ABA4-103138FF38A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05A0535-C886-4CD9-BFCE-D3D3FF877F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="30" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10095" yWindow="30" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1107,6 +1107,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,92 +1170,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1236,106 +1257,85 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1991,28 +1991,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2022,26 +2022,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2051,26 +2051,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="53"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2080,28 +2080,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="47"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="59"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2111,26 +2111,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="50"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="62"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2140,26 +2140,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="53"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2373,28 +2373,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="54" t="s">
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2406,24 +2406,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="59"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="50"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2435,28 +2435,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="54" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="56"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2468,24 +2468,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="59"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="50"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2497,28 +2497,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="54" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2530,24 +2530,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="59"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="50"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2559,28 +2559,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="54" t="s">
+      <c r="I31" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="60">
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="51">
         <v>44531</v>
       </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="62"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="53"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2592,24 +2592,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="65"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2621,28 +2621,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="54" t="s">
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="56"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="47"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2654,24 +2654,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="59"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="50"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2683,28 +2683,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="54" t="s">
+      <c r="I35" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="60">
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="51">
         <v>44501</v>
       </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="62"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="53"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2716,28 +2716,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="65"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="56"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2746,12 +2752,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2804,14 +2804,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2829,12 +2829,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2852,12 +2852,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2891,375 +2891,375 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3585,30 +3585,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3618,6 +3594,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,40 +3645,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="83"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="92">
         <v>44502</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40"/>
@@ -3703,22 +3703,22 @@
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="87"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="34">
@@ -3730,22 +3730,22 @@
       <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="88"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="34">
@@ -3757,22 +3757,22 @@
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="85"/>
+      <c r="H6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="88"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="34">
@@ -3784,22 +3784,22 @@
       <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="91" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="88"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="34">
@@ -3811,22 +3811,22 @@
       <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="91" t="s">
+      <c r="G8" s="85"/>
+      <c r="H8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="88"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="85"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="34">
@@ -3838,22 +3838,22 @@
       <c r="C9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="91"/>
-      <c r="J9" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="88"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="34">
@@ -3865,22 +3865,22 @@
       <c r="C10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="91" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="88"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="34">
@@ -3892,22 +3892,22 @@
       <c r="C11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="91" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="91"/>
-      <c r="J11" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="88"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34">
@@ -3919,22 +3919,22 @@
       <c r="C12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="88"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34">
@@ -3946,22 +3946,22 @@
       <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="92" t="s">
+      <c r="E13" s="87"/>
+      <c r="F13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="89" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="85"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34">
@@ -3973,22 +3973,22 @@
       <c r="C14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88" t="s">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89" t="s">
+      <c r="G14" s="85"/>
+      <c r="H14" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="88"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="34">
@@ -4000,22 +4000,22 @@
       <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88" t="s">
+      <c r="E15" s="85"/>
+      <c r="F15" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89" t="s">
+      <c r="G15" s="85"/>
+      <c r="H15" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="88" t="s">
+      <c r="I15" s="84"/>
+      <c r="J15" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="88"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34">
@@ -4027,22 +4027,22 @@
       <c r="C16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89" t="s">
+      <c r="G16" s="85"/>
+      <c r="H16" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="88" t="s">
+      <c r="I16" s="84"/>
+      <c r="J16" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="88"/>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="34">
@@ -4054,22 +4054,22 @@
       <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88" t="s">
+      <c r="E17" s="85"/>
+      <c r="F17" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89" t="s">
+      <c r="G17" s="85"/>
+      <c r="H17" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="88" t="s">
+      <c r="I17" s="84"/>
+      <c r="J17" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="88"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34">
@@ -4081,22 +4081,22 @@
       <c r="C18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88" t="s">
+      <c r="E18" s="85"/>
+      <c r="F18" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89" t="s">
+      <c r="G18" s="85"/>
+      <c r="H18" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="88" t="s">
+      <c r="I18" s="84"/>
+      <c r="J18" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="88"/>
+      <c r="K18" s="85"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="34">
@@ -4104,18 +4104,74 @@
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4128,62 +4184,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4196,7 +4196,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:Q24"/>
+      <selection activeCell="L19" sqref="L19:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4217,26 +4217,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4246,30 +4246,30 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="P1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="114"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
@@ -4279,10 +4279,10 @@
       <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="116">
+      <c r="P2" s="107">
         <v>44531</v>
       </c>
-      <c r="Q2" s="114"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4304,46 +4304,46 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
@@ -4373,18 +4373,18 @@
       <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="119" t="s">
+      <c r="J6" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
@@ -4414,18 +4414,18 @@
       <c r="I7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97"/>
+      <c r="J7" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
@@ -4455,18 +4455,18 @@
       <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
+      <c r="J8" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="96"/>
+      <c r="L8" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
@@ -4496,18 +4496,18 @@
       <c r="I9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
+      <c r="J9" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
@@ -4537,18 +4537,18 @@
       <c r="I10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
+      <c r="J10" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
@@ -4578,18 +4578,18 @@
       <c r="I11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
+      <c r="J11" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="96"/>
+      <c r="L11" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
@@ -4619,18 +4619,18 @@
       <c r="I12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
+      <c r="J12" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="96"/>
+      <c r="L12" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="44">
@@ -4660,18 +4660,18 @@
       <c r="I13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="104" t="s">
+      <c r="J13" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="44">
@@ -4701,18 +4701,18 @@
       <c r="I14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
+      <c r="J14" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="96"/>
+      <c r="L14" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44">
@@ -4742,18 +4742,18 @@
       <c r="I15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="J15" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="96"/>
+      <c r="L15" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44">
@@ -4783,18 +4783,18 @@
       <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
+      <c r="J16" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="96"/>
+      <c r="L16" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="44">
@@ -4824,18 +4824,18 @@
       <c r="I17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="101" t="s">
+      <c r="J17" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="96"/>
+      <c r="L17" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="115"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="44">
@@ -4865,18 +4865,18 @@
       <c r="I18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
+      <c r="J18" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="96"/>
+      <c r="L18" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44">
@@ -4906,18 +4906,18 @@
       <c r="I19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
+      <c r="J19" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="96"/>
+      <c r="L19" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44">
@@ -4947,18 +4947,18 @@
       <c r="I20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="98"/>
-      <c r="L20" s="101" t="s">
+      <c r="J20" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="96"/>
+      <c r="L20" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44">
@@ -4988,18 +4988,18 @@
       <c r="I21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
+      <c r="J21" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="96"/>
+      <c r="L21" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44">
@@ -5029,18 +5029,18 @@
       <c r="I22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="98"/>
-      <c r="L22" s="104" t="s">
+      <c r="J22" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="106"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="99"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44">
@@ -5070,18 +5070,18 @@
       <c r="I23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="104" t="s">
+      <c r="J23" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="106"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44">
@@ -5111,18 +5111,18 @@
       <c r="I24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="98"/>
-      <c r="L24" s="104" t="s">
+      <c r="J24" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44">
@@ -5152,18 +5152,18 @@
       <c r="I25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="104" t="s">
+      <c r="J25" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="106"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="99"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44">
@@ -5193,18 +5193,18 @@
       <c r="I26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="108"/>
-      <c r="L26" s="101" t="s">
+      <c r="K26" s="118"/>
+      <c r="L26" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44">
@@ -5218,14 +5218,14 @@
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="121"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17"/>
@@ -5237,17 +5237,56 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J25:K25"/>
@@ -5264,45 +5303,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
+++ b/1.基本設計書/2.DB設計/DBテーブル定義書.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\2.DB設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05A0535-C886-4CD9-BFCE-D3D3FF877F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6968DE-7470-4FCA-AA5B-6786D6B1BB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="30" windowWidth="18675" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="180" windowWidth="17325" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="一覧" sheetId="2" r:id="rId2"/>
     <sheet name="0.変更履歴" sheetId="3" r:id="rId3"/>
     <sheet name="1.m_customer" sheetId="5" r:id="rId4"/>
+    <sheet name="2.m_prefecture" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_customer'!$A$3:$Q$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2.m_prefecture'!$A$3:$Q$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
   </definedNames>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="134">
   <si>
     <t>DB設計</t>
   </si>
@@ -499,6 +501,123 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>都道府県マスタ</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>都道府県情報を保管するテーブル</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>都道府県名</t>
+    <rPh sb="0" eb="5">
+      <t>トドウフケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PREFECTURE_NAME</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PREFECTURE_KANA_NAME</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>都道府県名(カナ)</t>
+    <rPh sb="0" eb="5">
+      <t>トドウフケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>地方名</t>
+    <rPh sb="0" eb="3">
+      <t>チホウメイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PREFECTURE_REGION</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>都道府県コード</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PREFECTURE_CODE</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>都道府県マスタの『都道府県コード』を登録する。</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>山城</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・住所_都道府県の編集</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>m_prefecture</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・新規マスタの作成</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2 ・・・・・ 都道府県マスタ</t>
+    <rPh sb="8" eb="12">
+      <t>トドウフケン</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -973,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,9 +1139,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1056,243 +1172,234 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1336,6 +1443,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1772,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O33" sqref="O33:Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1991,28 +2107,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2022,26 +2138,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="66"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2051,26 +2167,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="65"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="69"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2080,28 +2196,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2111,26 +2227,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="62"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="66"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2140,26 +2256,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="65"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="69"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2373,28 +2489,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45" t="s">
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2406,24 +2522,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="54"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2435,28 +2551,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="45" t="s">
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="51"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2468,24 +2584,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="50"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="54"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2497,28 +2613,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="45" t="s">
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="47"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="51"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2530,24 +2646,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="50"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="54"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2559,28 +2675,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="51">
-        <v>44531</v>
-      </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="53"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="55">
+        <v>44538</v>
+      </c>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="57"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2592,24 +2708,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="60"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2621,28 +2737,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="45" t="s">
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="47"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="51"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2654,24 +2770,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="50"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="54"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2683,28 +2799,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="51">
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="55">
         <v>44501</v>
       </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="53"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="57"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2716,24 +2832,24 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="56"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="60"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
@@ -2764,7 +2880,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F21"/>
+      <selection activeCell="B12" sqref="B12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2804,14 +2920,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2829,12 +2945,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2852,12 +2968,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2891,375 +3007,377 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="B10" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="70"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
       <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3627,495 +3745,595 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF2E822-C045-46BE-9734-2CFD504F6133}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="39" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="39" customWidth="1"/>
-    <col min="3" max="7" width="9" style="5"/>
+    <col min="1" max="1" width="3.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="35" customWidth="1"/>
+    <col min="3" max="7" width="9" style="35"/>
     <col min="8" max="8" width="12.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.25" style="5" customWidth="1"/>
-    <col min="10" max="11" width="12.375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="12.375" style="35" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="27" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="92">
+      <c r="J2" s="120">
         <v>44502</v>
       </c>
-      <c r="K2" s="93"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="94"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>44501</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="84" t="s">
+      <c r="G5" s="83"/>
+      <c r="H5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="85"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>44502</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="85"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>44508</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="83" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="85"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>44509</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="83" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="85"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>44510</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85" t="s">
+      <c r="E9" s="83"/>
+      <c r="F9" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="85"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>6</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>44511</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85" t="s">
+      <c r="E10" s="83"/>
+      <c r="F10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="83" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="85"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="83"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>7</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>44516</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="83" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="85"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>44518</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85" t="s">
+      <c r="E12" s="83"/>
+      <c r="F12" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="84" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="85"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="83"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>9</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="27">
         <v>44519</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="86" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="84" t="s">
+      <c r="G13" s="85"/>
+      <c r="H13" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="85"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34">
+      <c r="A14" s="31">
         <v>10</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <v>44519</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85" t="s">
+      <c r="E14" s="83"/>
+      <c r="F14" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="84" t="s">
+      <c r="G14" s="83"/>
+      <c r="H14" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="85"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="83"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="27">
         <v>44522</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="84" t="s">
+      <c r="G15" s="83"/>
+      <c r="H15" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85" t="s">
+      <c r="I15" s="82"/>
+      <c r="J15" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="85"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34">
+      <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="27">
         <v>44524</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="84" t="s">
+      <c r="G16" s="83"/>
+      <c r="H16" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85" t="s">
+      <c r="I16" s="82"/>
+      <c r="J16" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="85"/>
+      <c r="K16" s="83"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34">
+      <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="27">
         <v>44530</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="84" t="s">
+      <c r="G17" s="83"/>
+      <c r="H17" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85" t="s">
+      <c r="I17" s="82"/>
+      <c r="J17" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="85"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34">
+      <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <v>44531</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85" t="s">
+      <c r="E18" s="83"/>
+      <c r="F18" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="84" t="s">
+      <c r="G18" s="83"/>
+      <c r="H18" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85" t="s">
+      <c r="I18" s="82"/>
+      <c r="J18" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="85"/>
+      <c r="K18" s="83"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="34">
+      <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="27">
+        <v>44538</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>108</v>
+      </c>
       <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
+      <c r="F19" s="83" t="s">
+        <v>109</v>
+      </c>
       <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="83"/>
+      <c r="H19" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83" t="s">
+        <v>100</v>
+      </c>
       <c r="K19" s="83"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="48">
+        <v>16</v>
+      </c>
+      <c r="B20" s="27">
+        <v>44538</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="83"/>
+      <c r="H20" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="83"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="48">
+        <v>17</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="48">
+        <v>18</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="48">
+        <v>19</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="84">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
@@ -4196,7 +4414,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:Q19"/>
+      <selection activeCell="L18" sqref="L18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4217,26 +4435,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
       <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4246,30 +4464,30 @@
       <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="105"/>
+      <c r="Q1" s="101"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102" t="s">
   